--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Бутылка 0,2 л.)/от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Бутылка 0,2 л.)/от 03.10.2019.xlsx
@@ -9,39 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
     <sheet name="Акт приемки" sheetId="14" r:id="rId2"/>
-    <sheet name="Ресурс" sheetId="13" r:id="rId3"/>
-    <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
-    <sheet name="Чист.  поддон" sheetId="4" r:id="rId5"/>
-    <sheet name="Черн. форма" sheetId="3" r:id="rId6"/>
-    <sheet name="Черн. поддон" sheetId="1" r:id="rId7"/>
-    <sheet name="Горл. кольцо" sheetId="9" r:id="rId8"/>
-    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId9"/>
-    <sheet name="Плунжер" sheetId="10" r:id="rId10"/>
-    <sheet name="Втулка" sheetId="11" r:id="rId11"/>
-    <sheet name="Дут. головка" sheetId="6" r:id="rId12"/>
-    <sheet name="Воронка" sheetId="12" r:id="rId13"/>
+    <sheet name="Чист. форма" sheetId="8" r:id="rId3"/>
+    <sheet name="Чист.  поддон" sheetId="4" r:id="rId4"/>
+    <sheet name="Черн. форма" sheetId="3" r:id="rId5"/>
+    <sheet name="Черн. поддон" sheetId="1" r:id="rId6"/>
+    <sheet name="Горл. кольцо" sheetId="9" r:id="rId7"/>
+    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId8"/>
+    <sheet name="Плунжер" sheetId="10" r:id="rId9"/>
+    <sheet name="Втулка" sheetId="11" r:id="rId10"/>
+    <sheet name="Дут. головка" sheetId="6" r:id="rId11"/>
+    <sheet name="Воронка" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Ресурс!$A$1:$J$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Черн. форма'!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист.  поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="124">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -223,13 +221,7 @@
     <t>Утверждаю</t>
   </si>
   <si>
-    <t>Унитарное предприятие "Белстеклопром"</t>
-  </si>
-  <si>
     <t>«     »</t>
-  </si>
-  <si>
-    <t>Справка</t>
   </si>
   <si>
     <t>Участок ремота форм</t>
@@ -242,12 +234,6 @@
   </si>
   <si>
     <t>члены:</t>
-  </si>
-  <si>
-    <t>_____________________</t>
-  </si>
-  <si>
-    <t>о присвоении ресурса формокомплекту</t>
   </si>
   <si>
     <t>Акт</t>
@@ -268,9 +254,6 @@
     <t>Примечания</t>
   </si>
   <si>
-    <t>Хватки для съема</t>
-  </si>
-  <si>
     <t>Плита охлаждения</t>
   </si>
   <si>
@@ -286,13 +269,7 @@
     <t>приемки формокомплекта для производства бутылки:</t>
   </si>
   <si>
-    <t>начальник участка ремонта форм:</t>
-  </si>
-  <si>
     <t xml:space="preserve">составила настоящий акт в том, что указанный формокомплект прибывший </t>
-  </si>
-  <si>
-    <t>Присваивает формокомплекту  Х-К-700-33 (GRAPE), приобретенному в собственность Унитарного предприятия "Белстеклопром", согласно договора №101016 от 10.10.2016 г., ресурс в количестве 22 400 000 капель стекломассы, прошедших через чистовые формы формокомплекта, после чего считать формокомплект 100% изношенным.</t>
   </si>
   <si>
     <t>имеет в наличии следующие детали:</t>
@@ -304,19 +281,7 @@
     <t>Штангенрейсмус</t>
   </si>
   <si>
-    <t>Главный инженер</t>
-  </si>
-  <si>
-    <t>20      г.</t>
-  </si>
-  <si>
     <t>20       г.</t>
-  </si>
-  <si>
-    <t>токарь участка ремонта форм:</t>
-  </si>
-  <si>
-    <t>С.В. Гельфер</t>
   </si>
   <si>
     <t>Текстовый формат ячейки?   </t>
@@ -341,9 +306,6 @@
   </si>
   <si>
     <t>начальник производственного участка</t>
-  </si>
-  <si>
-    <t>Комиссия созданная приказом №97 от 15/05/2019 в составе:</t>
   </si>
   <si>
     <t>PCI</t>
@@ -410,6 +372,45 @@
   </si>
   <si>
     <t>49,4 / 48,4</t>
+  </si>
+  <si>
+    <t>Чистовая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Поддон (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Черновая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Пресс головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Горловое кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Направляющее кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Плунжер (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Втулка плунжера (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Воронка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Дутьевая головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Плита охлаждения (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Трубка дутьевой головки (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
+  </si>
+  <si>
+    <t>Трубка дутьевой головки</t>
   </si>
 </sst>
 </file>
@@ -758,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1834,13 +1835,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -2794,18 +2808,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3003,6 +3009,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3049,11 +3061,17 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3072,15 +3090,6 @@
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3336,25 +3345,26 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5614,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5627,279 +5637,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="397" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="G1" s="380" t="s">
-        <v>94</v>
+      <c r="A1" s="393" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="G1" s="374" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="398" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="400"/>
-      <c r="G2" s="379" t="s">
-        <v>92</v>
+      <c r="A2" s="394" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="396"/>
+      <c r="G2" s="373" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="379" t="s">
-        <v>93</v>
+      <c r="G3" s="373" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="402" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="403"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="403"/>
+      <c r="A4" s="398" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="404" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="405"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="406"/>
+      <c r="A5" s="400" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="401"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="402"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="397" t="s">
+      <c r="A7" s="393" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="397"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="397"/>
+      <c r="E7" s="397"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="403"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="405"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="393" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="393"/>
+      <c r="C10" s="375"/>
+      <c r="D10" s="383" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="375"/>
+      <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="401"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="401"/>
-      <c r="E7" s="401"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="407"/>
-      <c r="B8" s="408"/>
-      <c r="C8" s="408"/>
-      <c r="D8" s="408"/>
-      <c r="E8" s="409"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="397"/>
-      <c r="C10" s="381"/>
-      <c r="D10" s="389" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="381"/>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="391"/>
+      <c r="B11" s="392"/>
+      <c r="D11" s="382">
+        <v>43741</v>
+      </c>
+      <c r="F11" s="389" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="390" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="390"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="389" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="390" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="390"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="376" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="377" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="507" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="389" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="389"/>
+      <c r="H13" s="389"/>
+      <c r="I13" s="389"/>
+      <c r="J13" s="390" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="390"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="378" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="379">
+        <v>24</v>
+      </c>
+      <c r="C14" s="385" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="395"/>
-      <c r="B11" s="396"/>
-      <c r="D11" s="388">
-        <v>43741</v>
-      </c>
-      <c r="F11" s="393" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="393"/>
-      <c r="H11" s="393"/>
-      <c r="I11" s="393"/>
-      <c r="J11" s="394" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="394"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="393" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="394" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="394"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="382" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="383" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="512" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="393" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="393"/>
-      <c r="H13" s="393"/>
-      <c r="I13" s="393"/>
-      <c r="J13" s="394" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="394"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="384" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="385">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="378" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="379">
         <v>24</v>
       </c>
-      <c r="C14" s="513" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="384" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="385">
-        <v>24</v>
-      </c>
-      <c r="C15" s="513" t="s">
-        <v>121</v>
+      <c r="C15" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="384" t="s">
+      <c r="A16" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="385">
+      <c r="B16" s="379">
         <v>32</v>
       </c>
-      <c r="C16" s="513" t="s">
-        <v>121</v>
+      <c r="C16" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="384" t="s">
+      <c r="A17" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="385">
+      <c r="B17" s="379">
         <v>32</v>
       </c>
-      <c r="C17" s="513" t="s">
-        <v>121</v>
+      <c r="C17" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="384" t="s">
+      <c r="A18" s="378" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="385">
+      <c r="B18" s="379">
         <v>60</v>
       </c>
-      <c r="C18" s="513" t="s">
-        <v>121</v>
+      <c r="C18" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="384" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="385">
+      <c r="A19" s="378" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="379">
         <v>60</v>
       </c>
-      <c r="C19" s="513" t="s">
-        <v>121</v>
+      <c r="C19" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="384" t="s">
+      <c r="A20" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="385">
+      <c r="B20" s="379">
         <v>50</v>
       </c>
-      <c r="C20" s="513" t="s">
-        <v>121</v>
+      <c r="C20" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="378" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="385">
+      <c r="B21" s="379">
         <v>20</v>
       </c>
-      <c r="C21" s="513" t="s">
-        <v>121</v>
+      <c r="C21" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="384" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="391" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="513"/>
+      <c r="A22" s="378" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="385" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="385"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="384" t="s">
+      <c r="A23" s="378" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="385">
+      <c r="B23" s="379">
         <v>20</v>
       </c>
-      <c r="C23" s="513" t="s">
-        <v>121</v>
+      <c r="C23" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="384" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="385">
+      <c r="A24" s="378" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="379">
         <v>8</v>
       </c>
-      <c r="C24" s="513" t="s">
-        <v>121</v>
+      <c r="C24" s="385" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="384" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="391" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="513"/>
+      <c r="A25" s="378" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="385" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="385"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="386" t="s">
+      <c r="A26" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="387">
+      <c r="B26" s="381">
         <v>20</v>
       </c>
-      <c r="C26" s="513" t="s">
-        <v>121</v>
-      </c>
+      <c r="C26" s="385" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="380" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="387">
+        <v>18</v>
+      </c>
+      <c r="C27" s="508"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="390" t="s">
-        <v>118</v>
-      </c>
+      <c r="A28" s="384"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="391"/>
+      <c r="A29" s="509"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5924,619 +5941,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
-    <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="170"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="172"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
-        <f>Данные!B20</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="483"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="501"/>
-      <c r="Q2" s="501"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="177"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="177"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="177"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="448" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
-        <f>Данные!$A5</f>
-        <v>PCI</v>
-      </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="177"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
-      <c r="B6" s="448" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
-        <f>Данные!$A2</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="177"/>
-    </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="455" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
-        <f>Данные!$A8</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
-        <f>Данные!$A11</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="396"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="177"/>
-    </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="188"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="256" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="259" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="260" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="353"/>
-      <c r="O9" s="353"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="353"/>
-      <c r="R9" s="355"/>
-      <c r="S9" s="204"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182"/>
-      <c r="B10" s="191" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="192">
-        <v>70.72</v>
-      </c>
-      <c r="D10" s="192">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="192">
-        <v>-0.05</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="356" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="356"/>
-      <c r="P10" s="356"/>
-      <c r="Q10" s="356"/>
-      <c r="R10" s="357"/>
-      <c r="S10" s="188"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182"/>
-      <c r="B11" s="193" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="194">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D11" s="194">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="194">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="358"/>
-      <c r="Q11" s="358"/>
-      <c r="R11" s="359"/>
-      <c r="S11" s="188"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182"/>
-      <c r="B12" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="368">
-        <v>45.2</v>
-      </c>
-      <c r="D12" s="194">
-        <v>0</v>
-      </c>
-      <c r="E12" s="205">
-        <v>-0.1</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="358"/>
-      <c r="O12" s="358"/>
-      <c r="P12" s="358"/>
-      <c r="Q12" s="358"/>
-      <c r="R12" s="359"/>
-      <c r="S12" s="188"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
-      <c r="B13" s="193" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="368">
-        <v>37</v>
-      </c>
-      <c r="D13" s="194">
-        <v>0</v>
-      </c>
-      <c r="E13" s="194">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="358"/>
-      <c r="O13" s="358"/>
-      <c r="P13" s="358"/>
-      <c r="Q13" s="358"/>
-      <c r="R13" s="359"/>
-      <c r="S13" s="188"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="193" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="368">
-        <v>28.5</v>
-      </c>
-      <c r="D14" s="194">
-        <v>0</v>
-      </c>
-      <c r="E14" s="194">
-        <v>-0.1</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="358"/>
-      <c r="O14" s="358"/>
-      <c r="P14" s="358"/>
-      <c r="Q14" s="358"/>
-      <c r="R14" s="359"/>
-      <c r="S14" s="188"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="368">
-        <v>9.5</v>
-      </c>
-      <c r="D15" s="194">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="194">
-        <v>-0.05</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="358"/>
-      <c r="O15" s="358"/>
-      <c r="P15" s="358"/>
-      <c r="Q15" s="358"/>
-      <c r="R15" s="359"/>
-      <c r="S15" s="188"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="193" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="368">
-        <v>23.8</v>
-      </c>
-      <c r="D16" s="194">
-        <v>0</v>
-      </c>
-      <c r="E16" s="194">
-        <v>-0.05</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="358"/>
-      <c r="O16" s="358"/>
-      <c r="P16" s="358"/>
-      <c r="Q16" s="358"/>
-      <c r="R16" s="359"/>
-      <c r="S16" s="188"/>
-    </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
-      <c r="B17" s="193" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="194">
-        <v>34.92</v>
-      </c>
-      <c r="D17" s="194">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="194">
-        <v>0</v>
-      </c>
-      <c r="F17" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="358"/>
-      <c r="O17" s="358"/>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="358"/>
-      <c r="R17" s="359"/>
-      <c r="S17" s="188"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="368">
-        <v>28.5</v>
-      </c>
-      <c r="D18" s="194">
-        <v>0</v>
-      </c>
-      <c r="E18" s="194">
-        <v>-0.03</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="358"/>
-      <c r="O18" s="358"/>
-      <c r="P18" s="358"/>
-      <c r="Q18" s="358"/>
-      <c r="R18" s="359"/>
-      <c r="S18" s="188"/>
-    </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="198"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>$C14+$D14</formula>
-      <formula>$C14+$E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -6583,47 +5987,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="458"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="474"/>
+      <c r="K2" s="477">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="478"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="502"/>
-      <c r="Q2" s="502"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="480"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6634,9 +6038,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6655,22 +6059,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6681,22 +6085,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6707,27 +6111,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6795,7 +6199,7 @@
       <c r="B10" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="371">
+      <c r="C10" s="365">
         <v>58.6</v>
       </c>
       <c r="D10" s="233">
@@ -6828,7 +6232,7 @@
       <c r="B11" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="372">
+      <c r="C11" s="366">
         <v>45.2</v>
       </c>
       <c r="D11" s="238">
@@ -6861,7 +6265,7 @@
       <c r="B12" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="372">
+      <c r="C12" s="366">
         <v>28.6</v>
       </c>
       <c r="D12" s="238">
@@ -6894,7 +6298,7 @@
       <c r="B13" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="366">
         <v>45.3</v>
       </c>
       <c r="D13" s="238">
@@ -6927,7 +6331,7 @@
       <c r="B14" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="372">
+      <c r="C14" s="366">
         <v>70</v>
       </c>
       <c r="D14" s="238">
@@ -6960,7 +6364,7 @@
       <c r="B15" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="372">
+      <c r="C15" s="366">
         <v>9.1</v>
       </c>
       <c r="D15" s="238">
@@ -6993,7 +6397,7 @@
       <c r="B16" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="372">
+      <c r="C16" s="366">
         <v>46</v>
       </c>
       <c r="D16" s="238">
@@ -7026,7 +6430,7 @@
       <c r="B17" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="366">
         <v>57.9</v>
       </c>
       <c r="D17" s="238">
@@ -7056,12 +6460,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="503" t="s">
+      <c r="B18" s="498" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="504"/>
-      <c r="D18" s="504"/>
-      <c r="E18" s="505"/>
+      <c r="C18" s="499"/>
+      <c r="D18" s="499"/>
+      <c r="E18" s="500"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -7162,7 +6566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -7209,47 +6613,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="458"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="474"/>
+      <c r="K2" s="477">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="478"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
+      <c r="P2" s="501"/>
+      <c r="Q2" s="501"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="480"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -7260,9 +6664,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7281,22 +6685,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -7307,22 +6711,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -7333,27 +6737,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -7421,7 +6825,7 @@
       <c r="B10" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="374">
+      <c r="C10" s="368">
         <v>42</v>
       </c>
       <c r="D10" s="157" t="s">
@@ -7454,7 +6858,7 @@
       <c r="B11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="374">
+      <c r="C11" s="368">
         <v>15.9</v>
       </c>
       <c r="D11" s="157" t="s">
@@ -7487,7 +6891,7 @@
       <c r="B12" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="373">
+      <c r="C12" s="367">
         <v>60</v>
       </c>
       <c r="D12" s="157" t="s">
@@ -7520,7 +6924,7 @@
       <c r="B13" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="373">
+      <c r="C13" s="367">
         <v>65</v>
       </c>
       <c r="D13" s="157">
@@ -7553,7 +6957,7 @@
       <c r="B14" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="373">
+      <c r="C14" s="367">
         <v>12.7</v>
       </c>
       <c r="D14" s="157">
@@ -7586,7 +6990,7 @@
       <c r="B15" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="373">
+      <c r="C15" s="367">
         <v>50.6</v>
       </c>
       <c r="D15" s="157">
@@ -7619,7 +7023,7 @@
       <c r="B16" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="367">
         <v>62</v>
       </c>
       <c r="D16" s="157">
@@ -7770,11 +7174,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -7817,47 +7221,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="458"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="508">
+      <c r="J2" s="474"/>
+      <c r="K2" s="502">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="507"/>
-      <c r="Q2" s="507"/>
+      <c r="P2" s="506"/>
+      <c r="Q2" s="506"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="511"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -7868,9 +7272,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7889,22 +7293,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7915,22 +7319,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7941,27 +7345,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -8014,14 +7418,14 @@
       <c r="H9" s="286"/>
       <c r="I9" s="286"/>
       <c r="J9" s="286"/>
-      <c r="K9" s="360"/>
-      <c r="L9" s="360"/>
-      <c r="M9" s="360"/>
-      <c r="N9" s="360"/>
-      <c r="O9" s="360"/>
-      <c r="P9" s="360"/>
-      <c r="Q9" s="360"/>
-      <c r="R9" s="361"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="354"/>
+      <c r="O9" s="354"/>
+      <c r="P9" s="354"/>
+      <c r="Q9" s="354"/>
+      <c r="R9" s="355"/>
       <c r="S9" s="287"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8047,14 +7451,14 @@
       <c r="H10" s="290"/>
       <c r="I10" s="289"/>
       <c r="J10" s="289"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="362"/>
-      <c r="M10" s="362"/>
-      <c r="N10" s="362"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="363"/>
+      <c r="K10" s="356"/>
+      <c r="L10" s="356"/>
+      <c r="M10" s="356"/>
+      <c r="N10" s="356"/>
+      <c r="O10" s="356"/>
+      <c r="P10" s="356"/>
+      <c r="Q10" s="356"/>
+      <c r="R10" s="357"/>
       <c r="S10" s="284"/>
     </row>
     <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -8062,7 +7466,7 @@
       <c r="B11" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="375">
+      <c r="C11" s="369">
         <v>65.099999999999994</v>
       </c>
       <c r="D11" s="293">
@@ -8080,14 +7484,14 @@
       <c r="H11" s="294"/>
       <c r="I11" s="291"/>
       <c r="J11" s="291"/>
-      <c r="K11" s="362"/>
-      <c r="L11" s="362"/>
-      <c r="M11" s="362"/>
-      <c r="N11" s="362"/>
-      <c r="O11" s="362"/>
-      <c r="P11" s="362"/>
-      <c r="Q11" s="362"/>
-      <c r="R11" s="364"/>
+      <c r="K11" s="356"/>
+      <c r="L11" s="356"/>
+      <c r="M11" s="356"/>
+      <c r="N11" s="356"/>
+      <c r="O11" s="356"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="356"/>
+      <c r="R11" s="358"/>
       <c r="S11" s="284"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8095,7 +7499,7 @@
       <c r="B12" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="369">
+      <c r="C12" s="363">
         <v>89</v>
       </c>
       <c r="D12" s="293">
@@ -8113,14 +7517,14 @@
       <c r="H12" s="295"/>
       <c r="I12" s="293"/>
       <c r="J12" s="293"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="365"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="365"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="365"/>
-      <c r="R12" s="366"/>
+      <c r="K12" s="359"/>
+      <c r="L12" s="359"/>
+      <c r="M12" s="359"/>
+      <c r="N12" s="359"/>
+      <c r="O12" s="359"/>
+      <c r="P12" s="359"/>
+      <c r="Q12" s="359"/>
+      <c r="R12" s="360"/>
       <c r="S12" s="284"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,7 +7532,7 @@
       <c r="B13" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="369">
+      <c r="C13" s="363">
         <v>12</v>
       </c>
       <c r="D13" s="293">
@@ -8146,14 +7550,14 @@
       <c r="H13" s="295"/>
       <c r="I13" s="293"/>
       <c r="J13" s="293"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="365"/>
-      <c r="M13" s="365"/>
-      <c r="N13" s="365"/>
-      <c r="O13" s="365"/>
-      <c r="P13" s="365"/>
-      <c r="Q13" s="365"/>
-      <c r="R13" s="366"/>
+      <c r="K13" s="359"/>
+      <c r="L13" s="359"/>
+      <c r="M13" s="359"/>
+      <c r="N13" s="359"/>
+      <c r="O13" s="359"/>
+      <c r="P13" s="359"/>
+      <c r="Q13" s="359"/>
+      <c r="R13" s="360"/>
       <c r="S13" s="284"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8161,7 +7565,7 @@
       <c r="B14" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="375">
+      <c r="C14" s="369">
         <v>52</v>
       </c>
       <c r="D14" s="293">
@@ -8179,14 +7583,14 @@
       <c r="H14" s="295"/>
       <c r="I14" s="293"/>
       <c r="J14" s="293"/>
-      <c r="K14" s="365"/>
-      <c r="L14" s="365"/>
-      <c r="M14" s="365"/>
-      <c r="N14" s="365"/>
-      <c r="O14" s="365"/>
-      <c r="P14" s="365"/>
-      <c r="Q14" s="365"/>
-      <c r="R14" s="366"/>
+      <c r="K14" s="359"/>
+      <c r="L14" s="359"/>
+      <c r="M14" s="359"/>
+      <c r="N14" s="359"/>
+      <c r="O14" s="359"/>
+      <c r="P14" s="359"/>
+      <c r="Q14" s="359"/>
+      <c r="R14" s="360"/>
       <c r="S14" s="284"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8200,14 +7604,14 @@
       <c r="H15" s="299"/>
       <c r="I15" s="299"/>
       <c r="J15" s="299"/>
-      <c r="K15" s="367"/>
-      <c r="L15" s="367"/>
-      <c r="M15" s="367"/>
-      <c r="N15" s="367"/>
-      <c r="O15" s="367"/>
-      <c r="P15" s="367"/>
-      <c r="Q15" s="367"/>
-      <c r="R15" s="348"/>
+      <c r="K15" s="361"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="361"/>
+      <c r="O15" s="361"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="361"/>
+      <c r="R15" s="342"/>
       <c r="S15" s="284"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8234,9 +7638,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -8252,6 +7653,9 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8280,8 +7684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8293,103 +7697,103 @@
     <col min="10" max="16384" width="9.109375" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G2" s="325" t="s">
+    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="319" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-    </row>
-    <row r="3" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G3" s="325" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-    </row>
-    <row r="4" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G4" s="325" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-    </row>
-    <row r="5" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G6" s="377"/>
-      <c r="H6" s="325" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
-    </row>
-    <row r="7" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
-    </row>
-    <row r="8" spans="1:11" s="376" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+    </row>
+    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="319" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+    </row>
+    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G4" s="319" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+    </row>
+    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G6" s="371"/>
+      <c r="H6" s="319" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="320"/>
+      <c r="J6" s="320"/>
+    </row>
+    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H7" s="320"/>
+      <c r="I7" s="320"/>
+      <c r="J7" s="320"/>
+    </row>
+    <row r="8" spans="1:11" s="370" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="G8" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="325" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="326"/>
-      <c r="J8" s="326"/>
+        <v>60</v>
+      </c>
+      <c r="H8" s="319" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="320"/>
+      <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="416" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="416"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="416"/>
+      <c r="A11" s="414" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="414"/>
+      <c r="C11" s="414"/>
+      <c r="D11" s="414"/>
+      <c r="E11" s="414"/>
+      <c r="F11" s="414"/>
+      <c r="G11" s="414"/>
+      <c r="H11" s="414"/>
+      <c r="I11" s="414"/>
+      <c r="J11" s="414"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="415" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="415"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
-      <c r="F12" s="415"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="415"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="415"/>
+      <c r="A12" s="413" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="413"/>
+      <c r="C12" s="413"/>
+      <c r="D12" s="413"/>
+      <c r="E12" s="413"/>
+      <c r="F12" s="413"/>
+      <c r="G12" s="413"/>
+      <c r="H12" s="413"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="413"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="417" t="str">
+      <c r="A13" s="415" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="416"/>
-      <c r="F13" s="416"/>
-      <c r="G13" s="416"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="416"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="414"/>
+      <c r="D13" s="414"/>
+      <c r="E13" s="414"/>
+      <c r="F13" s="414"/>
+      <c r="G13" s="414"/>
+      <c r="H13" s="414"/>
+      <c r="I13" s="414"/>
+      <c r="J13" s="414"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="313"/>
       <c r="C15" s="313"/>
@@ -8406,7 +7810,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="313" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B16" s="313"/>
       <c r="C16" s="313"/>
@@ -8418,61 +7822,61 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="328" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="329" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="330" t="str">
+    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="322" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="323" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="323"/>
+      <c r="D17" s="324" t="str">
         <f>Данные!F11</f>
         <v>начальник производства</v>
       </c>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
-      <c r="H17" s="329"/>
-      <c r="I17" s="329" t="str">
+      <c r="E17" s="323"/>
+      <c r="F17" s="323"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="323" t="str">
         <f>Данные!J11</f>
         <v>Я.В. Карчмит</v>
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="328" t="s">
+    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="322" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="329" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="329"/>
-      <c r="D18" s="330" t="str">
+      <c r="C18" s="323"/>
+      <c r="D18" s="324" t="str">
         <f>Данные!F12</f>
         <v>начальник производственного участка</v>
       </c>
-      <c r="E18" s="329"/>
-      <c r="F18" s="329"/>
-      <c r="G18" s="329"/>
-      <c r="I18" s="329" t="str">
+      <c r="E18" s="323"/>
+      <c r="F18" s="323"/>
+      <c r="G18" s="323"/>
+      <c r="I18" s="323" t="str">
         <f>Данные!J12</f>
         <v>Д.Е. Серков</v>
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="329"/>
-      <c r="B19" s="329"/>
-      <c r="C19" s="329"/>
-      <c r="D19" s="329" t="str">
+    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="323"/>
+      <c r="B19" s="323"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="323" t="str">
         <f>Данные!F13</f>
         <v>начальник участка ремонта форм</v>
       </c>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329" t="str">
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="323" t="str">
         <f>Данные!J13</f>
         <v>А.Д. Гавриленко</v>
       </c>
@@ -8480,7 +7884,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="313" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B20" s="313"/>
       <c r="C20" s="313"/>
@@ -8497,7 +7901,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="313" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B21" s="313"/>
       <c r="C21" s="313"/>
@@ -8510,313 +7914,310 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="411" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="411" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="411"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="411" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="411"/>
+      <c r="G22" s="412" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="413" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="413"/>
-      <c r="G22" s="414" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="413" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="413"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="414"/>
-      <c r="H23" s="413"/>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="392">
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="411"/>
+      <c r="B23" s="411"/>
+      <c r="C23" s="411"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411"/>
+      <c r="G23" s="412"/>
+      <c r="H23" s="411"/>
+      <c r="I23" s="411"/>
+      <c r="J23" s="411"/>
+    </row>
+    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="386">
         <v>1</v>
       </c>
-      <c r="B24" s="410" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="410"/>
-      <c r="D24" s="410"/>
-      <c r="E24" s="411" t="str">
+      <c r="B24" s="406" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="407"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="409" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F24" s="411"/>
-      <c r="G24" s="324">
+      <c r="F24" s="409"/>
+      <c r="G24" s="318">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="412"/>
-      <c r="I24" s="412"/>
-      <c r="J24" s="412"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="392">
+      <c r="H24" s="410"/>
+      <c r="I24" s="410"/>
+      <c r="J24" s="410"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="410" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="410"/>
-      <c r="D25" s="410"/>
-      <c r="E25" s="411" t="str">
+      <c r="B25" s="406" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="407"/>
+      <c r="D25" s="408"/>
+      <c r="E25" s="409" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F25" s="411"/>
-      <c r="G25" s="324">
+      <c r="F25" s="409"/>
+      <c r="G25" s="318">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H25" s="412"/>
-      <c r="I25" s="412"/>
-      <c r="J25" s="412"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="392">
+      <c r="H25" s="410"/>
+      <c r="I25" s="410"/>
+      <c r="J25" s="410"/>
+    </row>
+    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="386">
         <f t="shared" ref="A26:A35" si="0">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="410" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="410"/>
-      <c r="D26" s="410"/>
-      <c r="E26" s="411" t="str">
+      <c r="B26" s="406" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="407"/>
+      <c r="D26" s="408"/>
+      <c r="E26" s="409" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F26" s="411"/>
-      <c r="G26" s="324">
+      <c r="F26" s="409"/>
+      <c r="G26" s="318">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H26" s="412"/>
-      <c r="I26" s="412"/>
-      <c r="J26" s="412"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="392">
+      <c r="H26" s="410"/>
+      <c r="I26" s="410"/>
+      <c r="J26" s="410"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="410" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="410"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="411" t="str">
+      <c r="B27" s="406" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="407"/>
+      <c r="D27" s="408"/>
+      <c r="E27" s="409" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F27" s="411"/>
-      <c r="G27" s="324">
+      <c r="F27" s="409"/>
+      <c r="G27" s="318">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H27" s="412"/>
-      <c r="I27" s="412"/>
-      <c r="J27" s="412"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="392">
+      <c r="H27" s="410"/>
+      <c r="I27" s="410"/>
+      <c r="J27" s="410"/>
+    </row>
+    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B28" s="410" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="410"/>
-      <c r="D28" s="410"/>
-      <c r="E28" s="411" t="str">
+      <c r="B28" s="406" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="407"/>
+      <c r="D28" s="408"/>
+      <c r="E28" s="409" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F28" s="411"/>
-      <c r="G28" s="324">
+      <c r="F28" s="409"/>
+      <c r="G28" s="318">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H28" s="412"/>
-      <c r="I28" s="412"/>
-      <c r="J28" s="412"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="392">
+      <c r="H28" s="410"/>
+      <c r="I28" s="410"/>
+      <c r="J28" s="410"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B29" s="410" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="410"/>
-      <c r="D29" s="410"/>
-      <c r="E29" s="411" t="str">
+      <c r="B29" s="406" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="407"/>
+      <c r="D29" s="408"/>
+      <c r="E29" s="409" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F29" s="411"/>
-      <c r="G29" s="324">
+      <c r="F29" s="409"/>
+      <c r="G29" s="318">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H29" s="412"/>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="392">
+      <c r="H29" s="410"/>
+      <c r="I29" s="410"/>
+      <c r="J29" s="410"/>
+    </row>
+    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B30" s="410" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="410"/>
-      <c r="D30" s="410"/>
-      <c r="E30" s="411" t="str">
+      <c r="B30" s="406" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="407"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="409" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F30" s="411"/>
-      <c r="G30" s="324">
+      <c r="F30" s="409"/>
+      <c r="G30" s="318">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H30" s="412"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="392">
+      <c r="H30" s="410"/>
+      <c r="I30" s="410"/>
+      <c r="J30" s="410"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31" s="410" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="410"/>
-      <c r="D31" s="410"/>
-      <c r="E31" s="411" t="str">
+      <c r="B31" s="406" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="407"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="409" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F31" s="411"/>
-      <c r="G31" s="324">
+      <c r="F31" s="409"/>
+      <c r="G31" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H31" s="412"/>
-      <c r="I31" s="412"/>
-      <c r="J31" s="412"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="392">
+      <c r="H31" s="410"/>
+      <c r="I31" s="410"/>
+      <c r="J31" s="410"/>
+    </row>
+    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B32" s="410" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="410"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="411" t="str">
+      <c r="B32" s="406" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="407"/>
+      <c r="D32" s="408"/>
+      <c r="E32" s="409" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F32" s="411"/>
-      <c r="G32" s="324">
+      <c r="F32" s="409"/>
+      <c r="G32" s="318">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H32" s="412"/>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="392">
+      <c r="H32" s="410"/>
+      <c r="I32" s="410"/>
+      <c r="J32" s="410"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="410" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="410"/>
-      <c r="D33" s="410"/>
-      <c r="E33" s="411" t="str">
+      <c r="B33" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="407"/>
+      <c r="D33" s="408"/>
+      <c r="E33" s="409" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F33" s="411"/>
-      <c r="G33" s="324">
+      <c r="F33" s="409"/>
+      <c r="G33" s="318">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H33" s="412"/>
-      <c r="I33" s="412"/>
-      <c r="J33" s="412"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="392">
+      <c r="H33" s="410"/>
+      <c r="I33" s="410"/>
+      <c r="J33" s="410"/>
+    </row>
+    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B34" s="410" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="410"/>
-      <c r="D34" s="410"/>
-      <c r="E34" s="411">
-        <f>Данные!C22</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="411"/>
-      <c r="G34" s="324" t="str">
-        <f>Данные!B22</f>
-        <v>нет</v>
-      </c>
-      <c r="H34" s="412"/>
-      <c r="I34" s="412"/>
-      <c r="J34" s="412"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="392">
+      <c r="B34" s="406" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="407"/>
+      <c r="D34" s="408"/>
+      <c r="E34" s="409"/>
+      <c r="F34" s="409"/>
+      <c r="G34" s="388">
+        <f>Данные!B27</f>
+        <v>18</v>
+      </c>
+      <c r="H34" s="410"/>
+      <c r="I34" s="410"/>
+      <c r="J34" s="410"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B35" s="410" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="410"/>
-      <c r="D35" s="410"/>
-      <c r="E35" s="411" t="str">
+      <c r="B35" s="406" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="407"/>
+      <c r="D35" s="408"/>
+      <c r="E35" s="409" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F35" s="411"/>
-      <c r="G35" s="324">
+      <c r="F35" s="409"/>
+      <c r="G35" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H35" s="412"/>
-      <c r="I35" s="412"/>
-      <c r="J35" s="412"/>
+      <c r="H35" s="410"/>
+      <c r="I35" s="410"/>
+      <c r="J35" s="410"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="313"/>
@@ -8832,7 +8233,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="313" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" s="313"/>
       <c r="C37" s="313"/>
@@ -8848,21 +8249,21 @@
       <c r="A38" s="313"/>
       <c r="B38" s="313"/>
       <c r="C38" s="313"/>
-      <c r="D38" s="327"/>
-      <c r="E38" s="327"/>
-      <c r="F38" s="327"/>
-      <c r="G38" s="327"/>
-      <c r="H38" s="327"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="321"/>
       <c r="I38" s="313"/>
       <c r="J38" s="314"/>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="313"/>
-      <c r="B39" s="320" t="s">
-        <v>78</v>
+      <c r="B39" s="316" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="313" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -8890,8 +8291,8 @@
       <c r="C41" s="313"/>
       <c r="D41" s="313"/>
       <c r="E41" s="313"/>
-      <c r="G41" s="321"/>
-      <c r="H41" s="321"/>
+      <c r="G41" s="317"/>
+      <c r="H41" s="317"/>
       <c r="I41" s="313" t="str">
         <f>I17</f>
         <v>Я.В. Карчмит</v>
@@ -8935,8 +8336,8 @@
       <c r="C45" s="310"/>
       <c r="D45" s="310"/>
       <c r="E45" s="310"/>
-      <c r="G45" s="321"/>
-      <c r="H45" s="321"/>
+      <c r="G45" s="317"/>
+      <c r="H45" s="317"/>
       <c r="I45" s="313" t="str">
         <f>I19</f>
         <v>А.Д. Гавриленко</v>
@@ -8945,6 +8346,9 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="H35:J35"/>
@@ -8954,9 +8358,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:J31"/>
@@ -8992,483 +8393,11 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="309" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="309"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E2" s="310" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E3" s="310" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E4" s="310" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
-      <c r="G6" s="310" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E8" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="312"/>
-      <c r="G8" s="310" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="419" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="419"/>
-      <c r="C11" s="419"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="419"/>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="420" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="420"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="420"/>
-      <c r="F12" s="420"/>
-      <c r="G12" s="420"/>
-      <c r="H12" s="420"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="420"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="420" t="str">
-        <f>'Акт приемки'!A13:J13</f>
-        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
-      </c>
-      <c r="B13" s="420"/>
-      <c r="C13" s="420"/>
-      <c r="D13" s="420"/>
-      <c r="E13" s="420"/>
-      <c r="F13" s="420"/>
-      <c r="G13" s="420"/>
-      <c r="H13" s="420"/>
-      <c r="I13" s="420"/>
-      <c r="J13" s="420"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="313" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="313"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="315">
-        <f>'Акт приемки'!H15</f>
-        <v>43741</v>
-      </c>
-      <c r="I15" s="313"/>
-      <c r="J15" s="314"/>
-    </row>
-    <row r="16" spans="1:10" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="329" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="313"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="313"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="313"/>
-      <c r="H16" s="313"/>
-      <c r="I16" s="313"/>
-      <c r="J16" s="314"/>
-    </row>
-    <row r="17" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="328" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="329" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="329"/>
-      <c r="D17" s="330" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
-      <c r="H17" s="329"/>
-      <c r="I17" s="329" t="str">
-        <f>'Акт приемки'!I17</f>
-        <v>Я.В. Карчмит</v>
-      </c>
-      <c r="J17" s="314"/>
-    </row>
-    <row r="18" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="328" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="329" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="329"/>
-      <c r="D18" s="330" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="329"/>
-      <c r="F18" s="329"/>
-      <c r="G18" s="329"/>
-      <c r="I18" s="329" t="str">
-        <f>'Акт приемки'!I18</f>
-        <v>Д.Е. Серков</v>
-      </c>
-      <c r="J18" s="314"/>
-    </row>
-    <row r="19" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="329"/>
-      <c r="B19" s="329"/>
-      <c r="C19" s="329"/>
-      <c r="D19" s="329" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329" t="str">
-        <f>'Акт приемки'!I19</f>
-        <v>А.Д. Гавриленко</v>
-      </c>
-      <c r="J19" s="314"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="317"/>
-      <c r="B20" s="317"/>
-      <c r="C20" s="317"/>
-      <c r="D20" s="317"/>
-      <c r="E20" s="317"/>
-      <c r="F20" s="317"/>
-      <c r="G20" s="317"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="318"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="418" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="418"/>
-      <c r="C21" s="418"/>
-      <c r="D21" s="418"/>
-      <c r="E21" s="418"/>
-      <c r="F21" s="418"/>
-      <c r="G21" s="418"/>
-      <c r="H21" s="418"/>
-      <c r="I21" s="418"/>
-      <c r="J21" s="418"/>
-      <c r="K21" s="319"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="418"/>
-      <c r="B22" s="418"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
-      <c r="F22" s="418"/>
-      <c r="G22" s="418"/>
-      <c r="H22" s="418"/>
-      <c r="I22" s="418"/>
-      <c r="J22" s="418"/>
-      <c r="K22" s="319"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="418"/>
-      <c r="B23" s="418"/>
-      <c r="C23" s="418"/>
-      <c r="D23" s="418"/>
-      <c r="E23" s="418"/>
-      <c r="F23" s="418"/>
-      <c r="G23" s="418"/>
-      <c r="H23" s="418"/>
-      <c r="I23" s="418"/>
-      <c r="J23" s="418"/>
-      <c r="K23" s="319"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="418"/>
-      <c r="B24" s="418"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="418"/>
-      <c r="E24" s="418"/>
-      <c r="F24" s="418"/>
-      <c r="G24" s="418"/>
-      <c r="H24" s="418"/>
-      <c r="I24" s="418"/>
-      <c r="J24" s="418"/>
-      <c r="K24" s="319"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="418"/>
-      <c r="B25" s="418"/>
-      <c r="C25" s="418"/>
-      <c r="D25" s="418"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="418"/>
-      <c r="G25" s="418"/>
-      <c r="H25" s="418"/>
-      <c r="I25" s="418"/>
-      <c r="J25" s="418"/>
-      <c r="K25" s="319"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="418"/>
-      <c r="B26" s="418"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="418"/>
-      <c r="E26" s="418"/>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="418"/>
-      <c r="J26" s="418"/>
-      <c r="K26" s="319"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="319"/>
-      <c r="B27" s="319"/>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="319"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="313"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="313"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="313"/>
-      <c r="I28" s="313"/>
-      <c r="J28" s="314"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="313"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
-      <c r="I29" s="313"/>
-      <c r="J29" s="314"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="313"/>
-      <c r="B30" s="313"/>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="313"/>
-      <c r="I30" s="313"/>
-      <c r="J30" s="314"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="313"/>
-      <c r="B31" s="320"/>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="313"/>
-      <c r="I31" s="313"/>
-      <c r="J31" s="314"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="313"/>
-      <c r="B32" s="313"/>
-      <c r="C32" s="313"/>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="313"/>
-      <c r="I32" s="313"/>
-      <c r="J32" s="314"/>
-    </row>
-    <row r="33" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="313"/>
-      <c r="B33" s="313"/>
-      <c r="C33" s="313"/>
-      <c r="D33" s="313"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="321"/>
-      <c r="I33" s="316" t="str">
-        <f>I17</f>
-        <v>Я.В. Карчмит</v>
-      </c>
-      <c r="J33" s="313"/>
-    </row>
-    <row r="34" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="313"/>
-      <c r="B34" s="313"/>
-      <c r="C34" s="313"/>
-      <c r="D34" s="313"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="313"/>
-      <c r="I34" s="313"/>
-      <c r="J34" s="313"/>
-    </row>
-    <row r="35" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="313"/>
-      <c r="B35" s="313"/>
-      <c r="C35" s="313"/>
-      <c r="D35" s="313"/>
-      <c r="G35" s="377"/>
-      <c r="H35" s="377"/>
-      <c r="I35" s="316" t="str">
-        <f>I18</f>
-        <v>Д.Е. Серков</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="310"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="310"/>
-      <c r="D36" s="310"/>
-    </row>
-    <row r="37" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G37" s="376" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="313"/>
-      <c r="I37" s="313" t="str">
-        <f>I19</f>
-        <v>А.Д. Гавриленко</v>
-      </c>
-      <c r="J37" s="313"/>
-      <c r="K37" s="313"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G38" s="313"/>
-      <c r="H38" s="313"/>
-      <c r="I38" s="313"/>
-      <c r="J38" s="313"/>
-      <c r="K38" s="313"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F39" s="322"/>
-      <c r="G39" s="322"/>
-      <c r="H39" s="322"/>
-      <c r="I39" s="322"/>
-    </row>
-    <row r="40" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="310"/>
-      <c r="B40" s="310"/>
-      <c r="C40" s="310"/>
-      <c r="D40" s="310"/>
-      <c r="E40" s="310"/>
-      <c r="F40" s="322"/>
-      <c r="G40" s="322"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="313"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="310"/>
-      <c r="B41" s="310"/>
-      <c r="C41" s="310"/>
-      <c r="D41" s="310"/>
-      <c r="E41" s="310"/>
-      <c r="F41" s="322"/>
-      <c r="G41" s="323"/>
-      <c r="H41" s="323"/>
-      <c r="I41" s="323"/>
-      <c r="J41" s="310"/>
-    </row>
-    <row r="42" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="310"/>
-      <c r="B42" s="310"/>
-      <c r="C42" s="310"/>
-      <c r="D42" s="310"/>
-      <c r="E42" s="310"/>
-      <c r="F42" s="323"/>
-      <c r="G42" s="322"/>
-      <c r="H42" s="317"/>
-      <c r="I42" s="317"/>
-      <c r="J42" s="310"/>
-    </row>
-    <row r="43" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F43" s="322"/>
-      <c r="G43" s="322"/>
-      <c r="H43" s="323"/>
-      <c r="I43" s="322"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F44" s="322"/>
-      <c r="G44" s="322"/>
-      <c r="H44" s="322"/>
-      <c r="I44" s="322"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A21:J26"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -9515,47 +8444,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="430" t="s">
+      <c r="B2" s="416"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="418"/>
+      <c r="E2" s="425" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="437" t="s">
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="432" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="438"/>
-      <c r="K2" s="441">
+      <c r="J2" s="433"/>
+      <c r="K2" s="436">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="442"/>
+      <c r="L2" s="437"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="433"/>
+      <c r="P2" s="428"/>
+      <c r="Q2" s="428"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="419"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="429" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="439"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="435"/>
+      <c r="K3" s="438"/>
+      <c r="L3" s="439"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9566,9 +8495,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="427"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
+      <c r="B4" s="422"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="424"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9587,22 +8516,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="449"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="444"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="451"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9613,22 +8542,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="447"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="450"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="445"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9639,27 +8568,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="407">
+      <c r="C7" s="451"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="455" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="450" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="459"/>
-      <c r="K7" s="395">
+      <c r="J7" s="454"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9713,13 +8642,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
       <c r="S9" s="199"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9746,13 +8675,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="336"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9760,7 +8689,7 @@
       <c r="B11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="325">
         <v>136.19999999999999</v>
       </c>
       <c r="D11" s="98">
@@ -9779,13 +8708,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9812,13 +8741,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="338"/>
+      <c r="L12" s="331"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9826,7 +8755,7 @@
       <c r="B13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>5</v>
       </c>
       <c r="D13" s="98">
@@ -9845,13 +8774,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="337"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="338"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9859,7 +8788,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="331">
+      <c r="C14" s="325">
         <v>10</v>
       </c>
       <c r="D14" s="98">
@@ -9878,13 +8807,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="337"/>
-      <c r="M14" s="337"/>
-      <c r="N14" s="337"/>
-      <c r="O14" s="337"/>
-      <c r="P14" s="337"/>
-      <c r="Q14" s="337"/>
-      <c r="R14" s="338"/>
+      <c r="L14" s="331"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="331"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="332"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9892,7 +8821,7 @@
       <c r="B15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="325">
         <v>114.2</v>
       </c>
       <c r="D15" s="98">
@@ -9911,13 +8840,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="337"/>
-      <c r="M15" s="337"/>
-      <c r="N15" s="337"/>
-      <c r="O15" s="337"/>
-      <c r="P15" s="337"/>
-      <c r="Q15" s="337"/>
-      <c r="R15" s="338"/>
+      <c r="L15" s="331"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="331"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="332"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,13 +8873,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="337"/>
-      <c r="Q16" s="337"/>
-      <c r="R16" s="338"/>
+      <c r="L16" s="331"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="331"/>
+      <c r="O16" s="331"/>
+      <c r="P16" s="331"/>
+      <c r="Q16" s="331"/>
+      <c r="R16" s="332"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9958,7 +8887,7 @@
       <c r="B17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="331">
+      <c r="C17" s="325">
         <v>136.19999999999999</v>
       </c>
       <c r="D17" s="98">
@@ -9977,13 +8906,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="337"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="337"/>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="338"/>
+      <c r="L17" s="331"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="331"/>
+      <c r="O17" s="331"/>
+      <c r="P17" s="331"/>
+      <c r="Q17" s="331"/>
+      <c r="R17" s="332"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -10010,13 +8939,13 @@
       <c r="I18" s="106"/>
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
-      <c r="L18" s="339"/>
-      <c r="M18" s="339"/>
-      <c r="N18" s="339"/>
-      <c r="O18" s="339"/>
-      <c r="P18" s="339"/>
-      <c r="Q18" s="339"/>
-      <c r="R18" s="340"/>
+      <c r="L18" s="333"/>
+      <c r="M18" s="333"/>
+      <c r="N18" s="333"/>
+      <c r="O18" s="333"/>
+      <c r="P18" s="333"/>
+      <c r="Q18" s="333"/>
+      <c r="R18" s="334"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10043,13 +8972,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="339"/>
-      <c r="O19" s="339"/>
-      <c r="P19" s="339"/>
-      <c r="Q19" s="339"/>
-      <c r="R19" s="340"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="333"/>
+      <c r="N19" s="333"/>
+      <c r="O19" s="333"/>
+      <c r="P19" s="333"/>
+      <c r="Q19" s="333"/>
+      <c r="R19" s="334"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10058,7 +8987,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D20" s="106">
         <v>0.05</v>
@@ -10076,13 +9005,13 @@
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
-      <c r="L20" s="339"/>
-      <c r="M20" s="339"/>
-      <c r="N20" s="339"/>
-      <c r="O20" s="339"/>
-      <c r="P20" s="339"/>
-      <c r="Q20" s="339"/>
-      <c r="R20" s="340"/>
+      <c r="L20" s="333"/>
+      <c r="M20" s="333"/>
+      <c r="N20" s="333"/>
+      <c r="O20" s="333"/>
+      <c r="P20" s="333"/>
+      <c r="Q20" s="333"/>
+      <c r="R20" s="334"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10090,7 +9019,7 @@
       <c r="B21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="332">
+      <c r="C21" s="326">
         <v>0.2</v>
       </c>
       <c r="D21" s="106">
@@ -10109,13 +9038,13 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
       <c r="K21" s="106"/>
-      <c r="L21" s="339"/>
-      <c r="M21" s="339"/>
-      <c r="N21" s="339"/>
-      <c r="O21" s="339"/>
-      <c r="P21" s="339"/>
-      <c r="Q21" s="339"/>
-      <c r="R21" s="340"/>
+      <c r="L21" s="333"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="333"/>
+      <c r="O21" s="333"/>
+      <c r="P21" s="333"/>
+      <c r="Q21" s="333"/>
+      <c r="R21" s="334"/>
       <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10123,7 +9052,7 @@
       <c r="B22" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="332">
+      <c r="C22" s="326">
         <v>0.2</v>
       </c>
       <c r="D22" s="106">
@@ -10142,23 +9071,23 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
       <c r="K22" s="106"/>
-      <c r="L22" s="339"/>
-      <c r="M22" s="339"/>
-      <c r="N22" s="339"/>
-      <c r="O22" s="339"/>
-      <c r="P22" s="339"/>
-      <c r="Q22" s="339"/>
-      <c r="R22" s="340"/>
+      <c r="L22" s="333"/>
+      <c r="M22" s="333"/>
+      <c r="N22" s="333"/>
+      <c r="O22" s="333"/>
+      <c r="P22" s="333"/>
+      <c r="Q22" s="333"/>
+      <c r="R22" s="334"/>
       <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="460" t="s">
+      <c r="B23" s="455" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="461"/>
-      <c r="D23" s="461"/>
-      <c r="E23" s="462"/>
+      <c r="C23" s="456"/>
+      <c r="D23" s="456"/>
+      <c r="E23" s="457"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -10169,23 +9098,23 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
-      <c r="L23" s="339"/>
-      <c r="M23" s="339"/>
-      <c r="N23" s="339"/>
-      <c r="O23" s="339"/>
-      <c r="P23" s="339"/>
-      <c r="Q23" s="339"/>
-      <c r="R23" s="340"/>
+      <c r="L23" s="333"/>
+      <c r="M23" s="333"/>
+      <c r="N23" s="333"/>
+      <c r="O23" s="333"/>
+      <c r="P23" s="333"/>
+      <c r="Q23" s="333"/>
+      <c r="R23" s="334"/>
       <c r="S23" s="86"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="445" t="s">
+      <c r="B24" s="440" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="446"/>
-      <c r="D24" s="446"/>
-      <c r="E24" s="447"/>
+      <c r="C24" s="441"/>
+      <c r="D24" s="441"/>
+      <c r="E24" s="442"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -10196,13 +9125,13 @@
       <c r="I24" s="110"/>
       <c r="J24" s="110"/>
       <c r="K24" s="110"/>
-      <c r="L24" s="341"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="341"/>
-      <c r="O24" s="341"/>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="342"/>
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="335"/>
+      <c r="O24" s="335"/>
+      <c r="P24" s="335"/>
+      <c r="Q24" s="335"/>
+      <c r="R24" s="336"/>
       <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10267,7 +9196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -10314,50 +9243,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="463">
+      <c r="B2" s="458">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="474"/>
+      <c r="K2" s="477">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="478"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="433"/>
+      <c r="P2" s="428"/>
+      <c r="Q2" s="428"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="480"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10368,9 +9297,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -10389,22 +9318,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10415,22 +9344,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10441,27 +9370,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -10515,13 +9444,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -10548,13 +9477,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="336"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10562,7 +9491,7 @@
       <c r="B11" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="325">
         <v>25.5</v>
       </c>
       <c r="D11" s="98">
@@ -10581,13 +9510,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10595,7 +9524,7 @@
       <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="325">
         <v>20</v>
       </c>
       <c r="D12" s="98">
@@ -10614,13 +9543,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="338"/>
+      <c r="L12" s="331"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10628,7 +9557,7 @@
       <c r="B13" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>45.4</v>
       </c>
       <c r="D13" s="98">
@@ -10647,48 +9576,48 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="337"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="338"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="460" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="461"/>
-      <c r="D14" s="461"/>
-      <c r="E14" s="461"/>
-      <c r="F14" s="492"/>
+      <c r="B14" s="455" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="456"/>
+      <c r="D14" s="456"/>
+      <c r="E14" s="456"/>
+      <c r="F14" s="487"/>
       <c r="G14" s="56" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" s="107"/>
       <c r="I14" s="106"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="339"/>
-      <c r="P14" s="339"/>
-      <c r="Q14" s="339"/>
-      <c r="R14" s="340"/>
+      <c r="L14" s="333"/>
+      <c r="M14" s="333"/>
+      <c r="N14" s="333"/>
+      <c r="O14" s="333"/>
+      <c r="P14" s="333"/>
+      <c r="Q14" s="333"/>
+      <c r="R14" s="334"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="445" t="s">
+      <c r="B15" s="440" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="446"/>
-      <c r="D15" s="446"/>
-      <c r="E15" s="447"/>
+      <c r="C15" s="441"/>
+      <c r="D15" s="441"/>
+      <c r="E15" s="442"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -10699,13 +9628,13 @@
       <c r="I15" s="110"/>
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
-      <c r="L15" s="341"/>
-      <c r="M15" s="341"/>
-      <c r="N15" s="341"/>
-      <c r="O15" s="341"/>
-      <c r="P15" s="341"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="342"/>
+      <c r="L15" s="335"/>
+      <c r="M15" s="335"/>
+      <c r="N15" s="335"/>
+      <c r="O15" s="335"/>
+      <c r="P15" s="335"/>
+      <c r="Q15" s="335"/>
+      <c r="R15" s="336"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10785,7 +9714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
@@ -10832,47 +9761,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="430" t="s">
+      <c r="B2" s="416"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="418"/>
+      <c r="E2" s="425" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="437" t="s">
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="432" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="438"/>
-      <c r="K2" s="441">
+      <c r="J2" s="433"/>
+      <c r="K2" s="436">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="442"/>
+      <c r="L2" s="437"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="433"/>
+      <c r="P2" s="428"/>
+      <c r="Q2" s="428"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="419"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="429" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="439"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="435"/>
+      <c r="K3" s="438"/>
+      <c r="L3" s="439"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10883,9 +9812,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="427"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
+      <c r="B4" s="422"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="424"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10904,22 +9833,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="449"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="444"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="451"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10930,22 +9859,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="447"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="450"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="445"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10956,27 +9885,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="407">
+      <c r="C7" s="451"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="455" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="450" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="459"/>
-      <c r="K7" s="395">
+      <c r="J7" s="454"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11030,13 +9959,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="333"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="327"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="328"/>
       <c r="S9" s="90"/>
       <c r="V9" s="91"/>
       <c r="W9" s="91"/>
@@ -11066,13 +9995,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="336"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="330"/>
       <c r="S10" s="86"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -11083,7 +10012,7 @@
       <c r="B11" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="325">
         <v>5</v>
       </c>
       <c r="D11" s="98">
@@ -11102,13 +10031,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="332"/>
       <c r="S11" s="86"/>
       <c r="V11" s="91"/>
       <c r="W11" s="101"/>
@@ -11119,7 +10048,7 @@
       <c r="B12" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="325">
         <v>10</v>
       </c>
       <c r="D12" s="98">
@@ -11138,13 +10067,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
-      <c r="Q12" s="337"/>
-      <c r="R12" s="338"/>
+      <c r="L12" s="331"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="331"/>
+      <c r="R12" s="332"/>
       <c r="S12" s="86"/>
       <c r="V12" s="91"/>
       <c r="W12" s="102"/>
@@ -11155,7 +10084,7 @@
       <c r="B13" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>109.1</v>
       </c>
       <c r="D13" s="98">
@@ -11174,13 +10103,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="337"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
-      <c r="O13" s="337"/>
-      <c r="P13" s="337"/>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="338"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="332"/>
       <c r="S13" s="86"/>
       <c r="V13" s="91"/>
       <c r="W13" s="102"/>
@@ -11210,13 +10139,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="337"/>
-      <c r="M14" s="337"/>
-      <c r="N14" s="337"/>
-      <c r="O14" s="337"/>
-      <c r="P14" s="337"/>
-      <c r="Q14" s="337"/>
-      <c r="R14" s="338"/>
+      <c r="L14" s="331"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="331"/>
+      <c r="O14" s="331"/>
+      <c r="P14" s="331"/>
+      <c r="Q14" s="331"/>
+      <c r="R14" s="332"/>
       <c r="S14" s="86"/>
       <c r="V14" s="91"/>
       <c r="W14" s="102"/>
@@ -11227,7 +10156,7 @@
       <c r="B15" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="325">
         <v>136.19999999999999</v>
       </c>
       <c r="D15" s="98">
@@ -11246,13 +10175,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="337"/>
-      <c r="M15" s="337"/>
-      <c r="N15" s="337"/>
-      <c r="O15" s="337"/>
-      <c r="P15" s="337"/>
-      <c r="Q15" s="337"/>
-      <c r="R15" s="338"/>
+      <c r="L15" s="331"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="331"/>
+      <c r="O15" s="331"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="331"/>
+      <c r="R15" s="332"/>
       <c r="S15" s="86"/>
       <c r="V15" s="91"/>
       <c r="W15" s="101"/>
@@ -11263,7 +10192,7 @@
       <c r="B16" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="331">
+      <c r="C16" s="325">
         <v>75.400000000000006</v>
       </c>
       <c r="D16" s="98">
@@ -11282,13 +10211,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
-      <c r="O16" s="337"/>
-      <c r="P16" s="337"/>
-      <c r="Q16" s="337"/>
-      <c r="R16" s="338"/>
+      <c r="L16" s="331"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="331"/>
+      <c r="O16" s="331"/>
+      <c r="P16" s="331"/>
+      <c r="Q16" s="331"/>
+      <c r="R16" s="332"/>
       <c r="S16" s="86"/>
       <c r="V16" s="91"/>
       <c r="W16" s="102"/>
@@ -11318,13 +10247,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="337"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="337"/>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="338"/>
+      <c r="L17" s="331"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="331"/>
+      <c r="O17" s="331"/>
+      <c r="P17" s="331"/>
+      <c r="Q17" s="331"/>
+      <c r="R17" s="332"/>
       <c r="S17" s="86"/>
       <c r="V17" s="91"/>
       <c r="W17" s="101"/>
@@ -11354,13 +10283,13 @@
       <c r="I18" s="98"/>
       <c r="J18" s="98"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="337"/>
-      <c r="M18" s="337"/>
-      <c r="N18" s="337"/>
-      <c r="O18" s="337"/>
-      <c r="P18" s="337"/>
-      <c r="Q18" s="337"/>
-      <c r="R18" s="338"/>
+      <c r="L18" s="331"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="331"/>
+      <c r="O18" s="331"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="331"/>
+      <c r="R18" s="332"/>
       <c r="S18" s="86"/>
       <c r="V18" s="91"/>
       <c r="W18" s="101"/>
@@ -11371,7 +10300,7 @@
       <c r="B19" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="370">
+      <c r="C19" s="364">
         <v>65.2</v>
       </c>
       <c r="D19" s="106">
@@ -11390,13 +10319,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="339"/>
-      <c r="O19" s="339"/>
-      <c r="P19" s="339"/>
-      <c r="Q19" s="339"/>
-      <c r="R19" s="340"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="333"/>
+      <c r="N19" s="333"/>
+      <c r="O19" s="333"/>
+      <c r="P19" s="333"/>
+      <c r="Q19" s="333"/>
+      <c r="R19" s="334"/>
       <c r="S19" s="86"/>
       <c r="V19" s="91"/>
       <c r="W19" s="101"/>
@@ -11407,7 +10336,7 @@
       <c r="B20" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="332">
+      <c r="C20" s="326">
         <v>0.2</v>
       </c>
       <c r="D20" s="106">
@@ -11426,13 +10355,13 @@
       <c r="I20" s="110"/>
       <c r="J20" s="110"/>
       <c r="K20" s="110"/>
-      <c r="L20" s="341"/>
-      <c r="M20" s="341"/>
-      <c r="N20" s="341"/>
-      <c r="O20" s="341"/>
-      <c r="P20" s="341"/>
-      <c r="Q20" s="341"/>
-      <c r="R20" s="342"/>
+      <c r="L20" s="335"/>
+      <c r="M20" s="335"/>
+      <c r="N20" s="335"/>
+      <c r="O20" s="335"/>
+      <c r="P20" s="335"/>
+      <c r="Q20" s="335"/>
+      <c r="R20" s="336"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11459,9 +10388,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -11477,6 +10403,9 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -11497,7 +10426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -11544,47 +10473,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="430" t="s">
+      <c r="B2" s="416"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="418"/>
+      <c r="E2" s="425" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="437" t="s">
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="432" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="438"/>
-      <c r="K2" s="441">
+      <c r="J2" s="433"/>
+      <c r="K2" s="436">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="442"/>
+      <c r="L2" s="437"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
+      <c r="P2" s="488"/>
+      <c r="Q2" s="488"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="425"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="419"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="429" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="436"/>
-      <c r="I3" s="439"/>
-      <c r="J3" s="440"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="434"/>
+      <c r="J3" s="435"/>
+      <c r="K3" s="438"/>
+      <c r="L3" s="439"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -11595,9 +10524,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="427"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
+      <c r="B4" s="422"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="424"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11616,22 +10545,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="449"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="444"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="451"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -11642,22 +10571,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="447"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="450"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="445"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -11668,27 +10597,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="407">
+      <c r="C7" s="451"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="455" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="450" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="459"/>
-      <c r="K7" s="395">
+      <c r="J7" s="454"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -11742,13 +10671,13 @@
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="343"/>
-      <c r="M9" s="343"/>
-      <c r="N9" s="343"/>
-      <c r="O9" s="343"/>
-      <c r="P9" s="343"/>
-      <c r="Q9" s="343"/>
-      <c r="R9" s="344"/>
+      <c r="L9" s="337"/>
+      <c r="M9" s="337"/>
+      <c r="N9" s="337"/>
+      <c r="O9" s="337"/>
+      <c r="P9" s="337"/>
+      <c r="Q9" s="337"/>
+      <c r="R9" s="338"/>
       <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -11775,13 +10704,13 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
-      <c r="N10" s="345"/>
-      <c r="O10" s="345"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="345"/>
-      <c r="R10" s="346"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="339"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="339"/>
+      <c r="Q10" s="339"/>
+      <c r="R10" s="340"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,13 +10737,13 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="346"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="339"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="339"/>
+      <c r="Q11" s="339"/>
+      <c r="R11" s="340"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11822,7 +10751,7 @@
       <c r="B12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="349">
+      <c r="C12" s="343">
         <v>57</v>
       </c>
       <c r="D12" s="44">
@@ -11841,13 +10770,13 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="345"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="346"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="339"/>
+      <c r="N12" s="339"/>
+      <c r="O12" s="339"/>
+      <c r="P12" s="339"/>
+      <c r="Q12" s="339"/>
+      <c r="R12" s="340"/>
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11855,7 +10784,7 @@
       <c r="B13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="349">
+      <c r="C13" s="343">
         <v>50</v>
       </c>
       <c r="D13" s="44">
@@ -11874,13 +10803,13 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="345"/>
-      <c r="M13" s="345"/>
-      <c r="N13" s="345"/>
-      <c r="O13" s="345"/>
-      <c r="P13" s="345"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="346"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="339"/>
+      <c r="N13" s="339"/>
+      <c r="O13" s="339"/>
+      <c r="P13" s="339"/>
+      <c r="Q13" s="339"/>
+      <c r="R13" s="340"/>
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11888,7 +10817,7 @@
       <c r="B14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="349">
+      <c r="C14" s="343">
         <v>62</v>
       </c>
       <c r="D14" s="44">
@@ -11907,13 +10836,13 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="345"/>
-      <c r="M14" s="345"/>
-      <c r="N14" s="345"/>
-      <c r="O14" s="345"/>
-      <c r="P14" s="345"/>
-      <c r="Q14" s="345"/>
-      <c r="R14" s="346"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="339"/>
+      <c r="N14" s="339"/>
+      <c r="O14" s="339"/>
+      <c r="P14" s="339"/>
+      <c r="Q14" s="339"/>
+      <c r="R14" s="340"/>
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11921,7 +10850,7 @@
       <c r="B15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="350">
+      <c r="C15" s="344">
         <v>12.7</v>
       </c>
       <c r="D15" s="49">
@@ -11940,13 +10869,13 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
-      <c r="L15" s="347"/>
-      <c r="M15" s="347"/>
-      <c r="N15" s="347"/>
-      <c r="O15" s="347"/>
-      <c r="P15" s="347"/>
-      <c r="Q15" s="347"/>
-      <c r="R15" s="348"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="341"/>
+      <c r="N15" s="341"/>
+      <c r="O15" s="341"/>
+      <c r="P15" s="341"/>
+      <c r="Q15" s="341"/>
+      <c r="R15" s="342"/>
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12012,7 +10941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12062,60 +10991,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="458"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="474"/>
+      <c r="K2" s="477">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="483"/>
-      <c r="M2" s="494"/>
-      <c r="N2" s="495"/>
-      <c r="O2" s="495"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
+      <c r="L2" s="478"/>
+      <c r="M2" s="489"/>
+      <c r="N2" s="490"/>
+      <c r="O2" s="490"/>
+      <c r="P2" s="490"/>
+      <c r="Q2" s="490"/>
+      <c r="R2" s="491"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
-      <c r="M3" s="497"/>
-      <c r="N3" s="498"/>
-      <c r="O3" s="498"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="480"/>
+      <c r="M3" s="492"/>
+      <c r="N3" s="493"/>
+      <c r="O3" s="493"/>
+      <c r="P3" s="493"/>
+      <c r="Q3" s="493"/>
+      <c r="R3" s="494"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12124,95 +11053,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="497"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="498"/>
-      <c r="R4" s="499"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="493"/>
+      <c r="O4" s="493"/>
+      <c r="P4" s="493"/>
+      <c r="Q4" s="493"/>
+      <c r="R4" s="494"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="497"/>
-      <c r="N5" s="498"/>
-      <c r="O5" s="498"/>
-      <c r="P5" s="498"/>
-      <c r="Q5" s="498"/>
-      <c r="R5" s="499"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
+      <c r="M5" s="492"/>
+      <c r="N5" s="493"/>
+      <c r="O5" s="493"/>
+      <c r="P5" s="493"/>
+      <c r="Q5" s="493"/>
+      <c r="R5" s="494"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
-      <c r="M6" s="497"/>
-      <c r="N6" s="498"/>
-      <c r="O6" s="498"/>
-      <c r="P6" s="498"/>
-      <c r="Q6" s="498"/>
-      <c r="R6" s="499"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
+      <c r="M6" s="492"/>
+      <c r="N6" s="493"/>
+      <c r="O6" s="493"/>
+      <c r="P6" s="493"/>
+      <c r="Q6" s="493"/>
+      <c r="R6" s="494"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
-      <c r="M7" s="497"/>
-      <c r="N7" s="498"/>
-      <c r="O7" s="498"/>
-      <c r="P7" s="498"/>
-      <c r="Q7" s="498"/>
-      <c r="R7" s="499"/>
+      <c r="L7" s="392"/>
+      <c r="M7" s="492"/>
+      <c r="N7" s="493"/>
+      <c r="O7" s="493"/>
+      <c r="P7" s="493"/>
+      <c r="Q7" s="493"/>
+      <c r="R7" s="494"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12274,7 +11203,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="351">
+      <c r="C10" s="345">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -12373,7 +11302,7 @@
       <c r="B13" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="352">
+      <c r="C13" s="346">
         <v>38.1</v>
       </c>
       <c r="D13" s="133">
@@ -12406,7 +11335,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="331">
+      <c r="C14" s="325">
         <v>45.3</v>
       </c>
       <c r="D14" s="98">
@@ -12538,7 +11467,7 @@
       <c r="B18" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="331">
+      <c r="C18" s="325">
         <v>9.52</v>
       </c>
       <c r="D18" s="98">
@@ -12634,12 +11563,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="445" t="s">
+      <c r="B21" s="440" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="446"/>
-      <c r="D21" s="446"/>
-      <c r="E21" s="447"/>
+      <c r="C21" s="441"/>
+      <c r="D21" s="441"/>
+      <c r="E21" s="442"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -12722,7 +11651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -12768,47 +11697,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="472" t="s">
+      <c r="B2" s="458"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="478" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="479"/>
-      <c r="K2" s="482">
+      <c r="J2" s="474"/>
+      <c r="K2" s="477">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="483"/>
+      <c r="L2" s="478"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="466"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="475" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="485"/>
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="480"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12819,9 +11748,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12840,22 +11769,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="448" t="s">
+      <c r="B5" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="486"/>
-      <c r="D5" s="404" t="str">
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="488"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="406"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12866,22 +11795,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="398" t="str">
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="453"/>
-      <c r="H6" s="454"/>
-      <c r="I6" s="487"/>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="406"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12892,27 +11821,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="450" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="490"/>
-      <c r="D7" s="407">
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="457"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="457"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="491" t="s">
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="490"/>
-      <c r="K7" s="395">
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="396"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13046,7 +11975,7 @@
       <c r="B12" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="331">
+      <c r="C12" s="325">
         <v>28.6</v>
       </c>
       <c r="D12" s="98">
@@ -13079,7 +12008,7 @@
       <c r="B13" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="331">
+      <c r="C13" s="325">
         <v>62</v>
       </c>
       <c r="D13" s="98">
@@ -13145,7 +12074,7 @@
       <c r="B15" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="325">
         <v>9.5</v>
       </c>
       <c r="D15" s="98">
@@ -13175,12 +12104,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="445" t="s">
+      <c r="B16" s="440" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="446"/>
-      <c r="D16" s="446"/>
-      <c r="E16" s="447"/>
+      <c r="C16" s="441"/>
+      <c r="D16" s="441"/>
+      <c r="E16" s="442"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -13263,4 +12192,617 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="8" max="18" width="9" style="171" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="171"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="170"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="172"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="467" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="468"/>
+      <c r="G2" s="468"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="473" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="474"/>
+      <c r="K2" s="477">
+        <f>Данные!B20</f>
+        <v>50</v>
+      </c>
+      <c r="L2" s="478"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="177"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="172"/>
+      <c r="B3" s="461"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="470" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="472"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="480"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="177"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="172"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="177"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="172"/>
+      <c r="B5" s="443" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="481"/>
+      <c r="D5" s="400" t="str">
+        <f>Данные!$A5</f>
+        <v>PCI</v>
+      </c>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="482"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="402"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="177"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="172"/>
+      <c r="B6" s="443" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="481"/>
+      <c r="D6" s="394" t="str">
+        <f>Данные!$A2</f>
+        <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
+      </c>
+      <c r="E6" s="448"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="482"/>
+      <c r="J6" s="483"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="402"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="177"/>
+    </row>
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="172"/>
+      <c r="B7" s="450" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="485"/>
+      <c r="D7" s="403">
+        <f>Данные!$A8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="452"/>
+      <c r="F7" s="452"/>
+      <c r="G7" s="452"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="486" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="485"/>
+      <c r="K7" s="391">
+        <f>Данные!$A11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="392"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="177"/>
+    </row>
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="188"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="189"/>
+      <c r="B9" s="256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="259" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="204"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="182"/>
+      <c r="B10" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="192">
+        <v>70.72</v>
+      </c>
+      <c r="D10" s="192">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="192">
+        <v>-0.05</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="350" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="350"/>
+      <c r="P10" s="350"/>
+      <c r="Q10" s="350"/>
+      <c r="R10" s="351"/>
+      <c r="S10" s="188"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="182"/>
+      <c r="B11" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="194">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D11" s="194">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="194">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="352"/>
+      <c r="O11" s="352"/>
+      <c r="P11" s="352"/>
+      <c r="Q11" s="352"/>
+      <c r="R11" s="353"/>
+      <c r="S11" s="188"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="182"/>
+      <c r="B12" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="362">
+        <v>45.2</v>
+      </c>
+      <c r="D12" s="194">
+        <v>0</v>
+      </c>
+      <c r="E12" s="205">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="352"/>
+      <c r="O12" s="352"/>
+      <c r="P12" s="352"/>
+      <c r="Q12" s="352"/>
+      <c r="R12" s="353"/>
+      <c r="S12" s="188"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="182"/>
+      <c r="B13" s="193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="362">
+        <v>37</v>
+      </c>
+      <c r="D13" s="194">
+        <v>0</v>
+      </c>
+      <c r="E13" s="194">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="352"/>
+      <c r="O13" s="352"/>
+      <c r="P13" s="352"/>
+      <c r="Q13" s="352"/>
+      <c r="R13" s="353"/>
+      <c r="S13" s="188"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="182"/>
+      <c r="B14" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="362">
+        <v>28.5</v>
+      </c>
+      <c r="D14" s="194">
+        <v>0</v>
+      </c>
+      <c r="E14" s="194">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="352"/>
+      <c r="O14" s="352"/>
+      <c r="P14" s="352"/>
+      <c r="Q14" s="352"/>
+      <c r="R14" s="353"/>
+      <c r="S14" s="188"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="182"/>
+      <c r="B15" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="362">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="194">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="194">
+        <v>-0.05</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="352"/>
+      <c r="O15" s="352"/>
+      <c r="P15" s="352"/>
+      <c r="Q15" s="352"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="188"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="182"/>
+      <c r="B16" s="193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="362">
+        <v>23.8</v>
+      </c>
+      <c r="D16" s="194">
+        <v>0</v>
+      </c>
+      <c r="E16" s="194">
+        <v>-0.05</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="352"/>
+      <c r="O16" s="352"/>
+      <c r="P16" s="352"/>
+      <c r="Q16" s="352"/>
+      <c r="R16" s="353"/>
+      <c r="S16" s="188"/>
+    </row>
+    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="182"/>
+      <c r="B17" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="194">
+        <v>34.92</v>
+      </c>
+      <c r="D17" s="194">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="194">
+        <v>0</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="352"/>
+      <c r="O17" s="352"/>
+      <c r="P17" s="352"/>
+      <c r="Q17" s="352"/>
+      <c r="R17" s="353"/>
+      <c r="S17" s="188"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
+      <c r="B18" s="193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="362">
+        <v>28.5</v>
+      </c>
+      <c r="D18" s="194">
+        <v>0</v>
+      </c>
+      <c r="E18" s="194">
+        <v>-0.03</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="352"/>
+      <c r="O18" s="352"/>
+      <c r="P18" s="352"/>
+      <c r="Q18" s="352"/>
+      <c r="R18" s="353"/>
+      <c r="S18" s="188"/>
+    </row>
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="195"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="198"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>$C14+$D14</formula>
+      <formula>$C14+$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Бутылка 0,2 л.)/от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Бутылка 0,2 л.)/от 03.10.2019.xlsx
@@ -3014,11 +3014,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3061,6 +3062,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3076,92 +3083,20 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3213,73 +3148,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3303,6 +3241,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3329,22 +3336,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3356,16 +3366,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5625,7 +5625,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5637,25 +5637,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="394" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
       <c r="G1" s="374" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="395"/>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="396"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="397"/>
       <c r="G2" s="373" t="s">
         <v>81</v>
       </c>
@@ -5666,45 +5666,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
+      <c r="B4" s="400"/>
+      <c r="C4" s="400"/>
+      <c r="D4" s="400"/>
+      <c r="E4" s="400"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="400" t="s">
+      <c r="A5" s="401" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
-      <c r="D5" s="401"/>
-      <c r="E5" s="402"/>
+      <c r="B5" s="402"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="393" t="s">
+      <c r="A7" s="394" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="397"/>
-      <c r="C7" s="397"/>
-      <c r="D7" s="397"/>
-      <c r="E7" s="397"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="403"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="404"/>
-      <c r="D8" s="404"/>
-      <c r="E8" s="405"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="406"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="393" t="s">
+      <c r="A10" s="394" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="393"/>
+      <c r="B10" s="394"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>96</v>
@@ -5715,33 +5715,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="391"/>
-      <c r="B11" s="392"/>
+      <c r="A11" s="392"/>
+      <c r="B11" s="393"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="389" t="s">
+      <c r="F11" s="407" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="389"/>
-      <c r="H11" s="389"/>
-      <c r="I11" s="389"/>
-      <c r="J11" s="390" t="s">
+      <c r="G11" s="407"/>
+      <c r="H11" s="407"/>
+      <c r="I11" s="407"/>
+      <c r="J11" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="390"/>
+      <c r="K11" s="408"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="389" t="s">
+      <c r="F12" s="407" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="389"/>
-      <c r="H12" s="389"/>
-      <c r="I12" s="389"/>
-      <c r="J12" s="390" t="s">
+      <c r="G12" s="407"/>
+      <c r="H12" s="407"/>
+      <c r="I12" s="407"/>
+      <c r="J12" s="408" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="390"/>
+      <c r="K12" s="408"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="376" t="s">
@@ -5750,19 +5750,19 @@
       <c r="B13" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="507" t="s">
+      <c r="C13" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="389" t="s">
+      <c r="F13" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="389"/>
-      <c r="H13" s="389"/>
-      <c r="I13" s="389"/>
-      <c r="J13" s="390" t="s">
+      <c r="G13" s="407"/>
+      <c r="H13" s="407"/>
+      <c r="I13" s="407"/>
+      <c r="J13" s="408" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="390"/>
+      <c r="K13" s="408"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="378" t="s">
@@ -5910,16 +5910,22 @@
       <c r="B27" s="387">
         <v>18</v>
       </c>
-      <c r="C27" s="508"/>
+      <c r="C27" s="390"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="384"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="509"/>
+      <c r="A29" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -5928,12 +5934,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5987,47 +5987,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="477">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="478"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
+      <c r="P2" s="503"/>
+      <c r="Q2" s="503"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6038,9 +6038,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6059,22 +6059,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6111,27 +6111,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6460,12 +6460,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="498" t="s">
+      <c r="B18" s="500" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="499"/>
-      <c r="D18" s="499"/>
-      <c r="E18" s="500"/>
+      <c r="C18" s="501"/>
+      <c r="D18" s="501"/>
+      <c r="E18" s="502"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -6509,6 +6509,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -6520,14 +6528,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6613,47 +6613,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="477">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="478"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="501"/>
-      <c r="Q2" s="501"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -6664,9 +6664,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6685,22 +6685,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -6711,22 +6711,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -6737,27 +6737,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -7138,17 +7138,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7156,6 +7145,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7221,47 +7221,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="502">
+      <c r="J2" s="484"/>
+      <c r="K2" s="506">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="503"/>
+      <c r="L2" s="507"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
+      <c r="P2" s="505"/>
+      <c r="Q2" s="505"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="509"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -7272,9 +7272,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7293,22 +7293,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7319,22 +7319,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7345,27 +7345,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -7638,6 +7638,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -7654,8 +7656,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7749,47 +7749,47 @@
       <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="414" t="s">
+      <c r="A11" s="415" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="414"/>
-      <c r="C11" s="414"/>
-      <c r="D11" s="414"/>
-      <c r="E11" s="414"/>
-      <c r="F11" s="414"/>
-      <c r="G11" s="414"/>
-      <c r="H11" s="414"/>
-      <c r="I11" s="414"/>
-      <c r="J11" s="414"/>
+      <c r="B11" s="415"/>
+      <c r="C11" s="415"/>
+      <c r="D11" s="415"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="413" t="s">
+      <c r="A12" s="414" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="413"/>
-      <c r="C12" s="413"/>
-      <c r="D12" s="413"/>
-      <c r="E12" s="413"/>
-      <c r="F12" s="413"/>
-      <c r="G12" s="413"/>
-      <c r="H12" s="413"/>
-      <c r="I12" s="413"/>
-      <c r="J12" s="413"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="414"/>
+      <c r="H12" s="414"/>
+      <c r="I12" s="414"/>
+      <c r="J12" s="414"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="415" t="str">
+      <c r="A13" s="416" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="B13" s="414"/>
-      <c r="C13" s="414"/>
-      <c r="D13" s="414"/>
-      <c r="E13" s="414"/>
-      <c r="F13" s="414"/>
-      <c r="G13" s="414"/>
-      <c r="H13" s="414"/>
-      <c r="I13" s="414"/>
-      <c r="J13" s="414"/>
+      <c r="B13" s="415"/>
+      <c r="C13" s="415"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -7914,310 +7914,310 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="411" t="s">
+      <c r="A22" s="417" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="411" t="s">
+      <c r="B22" s="417" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="411"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="411" t="s">
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="411"/>
-      <c r="G22" s="412" t="s">
+      <c r="F22" s="417"/>
+      <c r="G22" s="418" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="411" t="s">
+      <c r="H22" s="417" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="411"/>
-      <c r="J22" s="411"/>
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="411"/>
-      <c r="B23" s="411"/>
-      <c r="C23" s="411"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="411"/>
-      <c r="F23" s="411"/>
-      <c r="G23" s="412"/>
-      <c r="H23" s="411"/>
-      <c r="I23" s="411"/>
-      <c r="J23" s="411"/>
+      <c r="A23" s="417"/>
+      <c r="B23" s="417"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="418"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
     </row>
     <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="386">
         <v>1</v>
       </c>
-      <c r="B24" s="406" t="s">
+      <c r="B24" s="409" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="407"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="409" t="str">
+      <c r="C24" s="410"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="412" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F24" s="409"/>
+      <c r="F24" s="412"/>
       <c r="G24" s="318">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="410"/>
-      <c r="I24" s="410"/>
-      <c r="J24" s="410"/>
+      <c r="H24" s="413"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="413"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="406" t="s">
+      <c r="B25" s="409" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="407"/>
-      <c r="D25" s="408"/>
-      <c r="E25" s="409" t="str">
+      <c r="C25" s="410"/>
+      <c r="D25" s="411"/>
+      <c r="E25" s="412" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F25" s="409"/>
+      <c r="F25" s="412"/>
       <c r="G25" s="318">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H25" s="410"/>
-      <c r="I25" s="410"/>
-      <c r="J25" s="410"/>
+      <c r="H25" s="413"/>
+      <c r="I25" s="413"/>
+      <c r="J25" s="413"/>
     </row>
     <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="386">
         <f t="shared" ref="A26:A35" si="0">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="406" t="s">
+      <c r="B26" s="409" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="407"/>
-      <c r="D26" s="408"/>
-      <c r="E26" s="409" t="str">
+      <c r="C26" s="410"/>
+      <c r="D26" s="411"/>
+      <c r="E26" s="412" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F26" s="409"/>
+      <c r="F26" s="412"/>
       <c r="G26" s="318">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H26" s="410"/>
-      <c r="I26" s="410"/>
-      <c r="J26" s="410"/>
+      <c r="H26" s="413"/>
+      <c r="I26" s="413"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="406" t="s">
+      <c r="B27" s="409" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="407"/>
-      <c r="D27" s="408"/>
-      <c r="E27" s="409" t="str">
+      <c r="C27" s="410"/>
+      <c r="D27" s="411"/>
+      <c r="E27" s="412" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F27" s="409"/>
+      <c r="F27" s="412"/>
       <c r="G27" s="318">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H27" s="410"/>
-      <c r="I27" s="410"/>
-      <c r="J27" s="410"/>
+      <c r="H27" s="413"/>
+      <c r="I27" s="413"/>
+      <c r="J27" s="413"/>
     </row>
     <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B28" s="406" t="s">
+      <c r="B28" s="409" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="407"/>
-      <c r="D28" s="408"/>
-      <c r="E28" s="409" t="str">
+      <c r="C28" s="410"/>
+      <c r="D28" s="411"/>
+      <c r="E28" s="412" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F28" s="409"/>
+      <c r="F28" s="412"/>
       <c r="G28" s="318">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H28" s="410"/>
-      <c r="I28" s="410"/>
-      <c r="J28" s="410"/>
+      <c r="H28" s="413"/>
+      <c r="I28" s="413"/>
+      <c r="J28" s="413"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B29" s="406" t="s">
+      <c r="B29" s="409" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="407"/>
-      <c r="D29" s="408"/>
-      <c r="E29" s="409" t="str">
+      <c r="C29" s="410"/>
+      <c r="D29" s="411"/>
+      <c r="E29" s="412" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F29" s="409"/>
+      <c r="F29" s="412"/>
       <c r="G29" s="318">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H29" s="410"/>
-      <c r="I29" s="410"/>
-      <c r="J29" s="410"/>
+      <c r="H29" s="413"/>
+      <c r="I29" s="413"/>
+      <c r="J29" s="413"/>
     </row>
     <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B30" s="406" t="s">
+      <c r="B30" s="409" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="407"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="409" t="str">
+      <c r="C30" s="410"/>
+      <c r="D30" s="411"/>
+      <c r="E30" s="412" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F30" s="409"/>
+      <c r="F30" s="412"/>
       <c r="G30" s="318">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H30" s="410"/>
-      <c r="I30" s="410"/>
-      <c r="J30" s="410"/>
+      <c r="H30" s="413"/>
+      <c r="I30" s="413"/>
+      <c r="J30" s="413"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31" s="406" t="s">
+      <c r="B31" s="409" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="407"/>
-      <c r="D31" s="408"/>
-      <c r="E31" s="409" t="str">
+      <c r="C31" s="410"/>
+      <c r="D31" s="411"/>
+      <c r="E31" s="412" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F31" s="409"/>
+      <c r="F31" s="412"/>
       <c r="G31" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="410"/>
-      <c r="J31" s="410"/>
+      <c r="H31" s="413"/>
+      <c r="I31" s="413"/>
+      <c r="J31" s="413"/>
     </row>
     <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B32" s="406" t="s">
+      <c r="B32" s="409" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="407"/>
-      <c r="D32" s="408"/>
-      <c r="E32" s="409" t="str">
+      <c r="C32" s="410"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="412" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="412"/>
       <c r="G32" s="318">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H32" s="410"/>
-      <c r="I32" s="410"/>
-      <c r="J32" s="410"/>
+      <c r="H32" s="413"/>
+      <c r="I32" s="413"/>
+      <c r="J32" s="413"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="406" t="s">
+      <c r="B33" s="409" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="407"/>
-      <c r="D33" s="408"/>
-      <c r="E33" s="409" t="str">
+      <c r="C33" s="410"/>
+      <c r="D33" s="411"/>
+      <c r="E33" s="412" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F33" s="409"/>
+      <c r="F33" s="412"/>
       <c r="G33" s="318">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H33" s="410"/>
-      <c r="I33" s="410"/>
-      <c r="J33" s="410"/>
+      <c r="H33" s="413"/>
+      <c r="I33" s="413"/>
+      <c r="J33" s="413"/>
     </row>
     <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B34" s="406" t="s">
+      <c r="B34" s="409" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="407"/>
-      <c r="D34" s="408"/>
-      <c r="E34" s="409"/>
-      <c r="F34" s="409"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="411"/>
+      <c r="E34" s="412"/>
+      <c r="F34" s="412"/>
       <c r="G34" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H34" s="410"/>
-      <c r="I34" s="410"/>
-      <c r="J34" s="410"/>
+      <c r="H34" s="413"/>
+      <c r="I34" s="413"/>
+      <c r="J34" s="413"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B35" s="406" t="s">
+      <c r="B35" s="409" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="407"/>
-      <c r="D35" s="408"/>
-      <c r="E35" s="409" t="str">
+      <c r="C35" s="410"/>
+      <c r="D35" s="411"/>
+      <c r="E35" s="412" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F35" s="409"/>
+      <c r="F35" s="412"/>
       <c r="G35" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H35" s="410"/>
-      <c r="I35" s="410"/>
-      <c r="J35" s="410"/>
+      <c r="H35" s="413"/>
+      <c r="I35" s="413"/>
+      <c r="J35" s="413"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="313"/>
@@ -8346,12 +8346,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -8368,28 +8384,12 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8444,47 +8444,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="416"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="425" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="432" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="433"/>
-      <c r="K2" s="436">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="437"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="428"/>
-      <c r="Q2" s="428"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="419"/>
-      <c r="C3" s="420"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="429" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="430"/>
-      <c r="G3" s="430"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="438"/>
-      <c r="L3" s="439"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8495,9 +8495,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="422"/>
-      <c r="C4" s="423"/>
-      <c r="D4" s="424"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8516,22 +8516,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="444"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="423"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="445"/>
-      <c r="J5" s="446"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8542,22 +8542,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="447"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="426"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="445"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8568,27 +8568,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="451"/>
-      <c r="D7" s="403">
+      <c r="C7" s="430"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="450" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="454"/>
-      <c r="K7" s="391">
+      <c r="J7" s="433"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9082,12 +9082,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="455" t="s">
+      <c r="B23" s="434" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="456"/>
-      <c r="D23" s="456"/>
-      <c r="E23" s="457"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="435"/>
+      <c r="E23" s="436"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -9109,12 +9109,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="440" t="s">
+      <c r="B24" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="441"/>
-      <c r="D24" s="441"/>
-      <c r="E24" s="442"/>
+      <c r="C24" s="420"/>
+      <c r="D24" s="420"/>
+      <c r="E24" s="421"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -9158,6 +9158,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9172,12 +9178,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -9243,50 +9243,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="458">
+      <c r="B2" s="468">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="477">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="478"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="428"/>
-      <c r="Q2" s="428"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9297,9 +9297,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9318,22 +9318,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9344,22 +9344,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9370,27 +9370,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9587,13 +9587,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="455" t="s">
+      <c r="B14" s="434" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="456"/>
-      <c r="D14" s="456"/>
-      <c r="E14" s="456"/>
-      <c r="F14" s="487"/>
+      <c r="C14" s="435"/>
+      <c r="D14" s="435"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="467"/>
       <c r="G14" s="56" t="s">
         <v>79</v>
       </c>
@@ -9612,12 +9612,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="440" t="s">
+      <c r="B15" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="441"/>
-      <c r="D15" s="441"/>
-      <c r="E15" s="442"/>
+      <c r="C15" s="420"/>
+      <c r="D15" s="420"/>
+      <c r="E15" s="421"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -9668,6 +9668,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9682,12 +9688,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9761,47 +9761,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="416"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="425" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="432" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="433"/>
-      <c r="K2" s="436">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="437"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="428"/>
-      <c r="Q2" s="428"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="419"/>
-      <c r="C3" s="420"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="429" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="430"/>
-      <c r="G3" s="430"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="438"/>
-      <c r="L3" s="439"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9812,9 +9812,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="422"/>
-      <c r="C4" s="423"/>
-      <c r="D4" s="424"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9833,22 +9833,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="444"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="423"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="445"/>
-      <c r="J5" s="446"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9859,22 +9859,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="447"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="426"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="445"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9885,27 +9885,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="451"/>
-      <c r="D7" s="403">
+      <c r="C7" s="430"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="450" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="454"/>
-      <c r="K7" s="391">
+      <c r="J7" s="433"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10388,6 +10388,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -10404,8 +10406,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10473,47 +10473,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="416"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="425" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="432" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="433"/>
-      <c r="K2" s="436">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="437"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="488"/>
-      <c r="Q2" s="488"/>
+      <c r="P2" s="491"/>
+      <c r="Q2" s="491"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="419"/>
-      <c r="C3" s="420"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="429" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="430"/>
-      <c r="G3" s="430"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="438"/>
-      <c r="L3" s="439"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10524,9 +10524,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="422"/>
-      <c r="C4" s="423"/>
-      <c r="D4" s="424"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10545,22 +10545,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="444"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="423"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="445"/>
-      <c r="J5" s="446"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="424"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10571,22 +10571,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="447"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="426"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="445"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10597,27 +10597,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="451"/>
-      <c r="D7" s="403">
+      <c r="C7" s="430"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="450" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="454"/>
-      <c r="K7" s="391">
+      <c r="J7" s="433"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10902,6 +10902,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -10909,17 +10920,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -10991,60 +10991,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="477">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="478"/>
-      <c r="M2" s="489"/>
-      <c r="N2" s="490"/>
-      <c r="O2" s="490"/>
-      <c r="P2" s="490"/>
-      <c r="Q2" s="490"/>
-      <c r="R2" s="491"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="492"/>
+      <c r="N2" s="493"/>
+      <c r="O2" s="493"/>
+      <c r="P2" s="493"/>
+      <c r="Q2" s="493"/>
+      <c r="R2" s="494"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
-      <c r="M3" s="492"/>
-      <c r="N3" s="493"/>
-      <c r="O3" s="493"/>
-      <c r="P3" s="493"/>
-      <c r="Q3" s="493"/>
-      <c r="R3" s="494"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="496"/>
+      <c r="P3" s="496"/>
+      <c r="Q3" s="496"/>
+      <c r="R3" s="497"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11053,95 +11053,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="492"/>
-      <c r="N4" s="493"/>
-      <c r="O4" s="493"/>
-      <c r="P4" s="493"/>
-      <c r="Q4" s="493"/>
-      <c r="R4" s="494"/>
+      <c r="M4" s="495"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="496"/>
+      <c r="R4" s="497"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
-      <c r="M5" s="492"/>
-      <c r="N5" s="493"/>
-      <c r="O5" s="493"/>
-      <c r="P5" s="493"/>
-      <c r="Q5" s="493"/>
-      <c r="R5" s="494"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="495"/>
+      <c r="N5" s="496"/>
+      <c r="O5" s="496"/>
+      <c r="P5" s="496"/>
+      <c r="Q5" s="496"/>
+      <c r="R5" s="497"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
-      <c r="M6" s="492"/>
-      <c r="N6" s="493"/>
-      <c r="O6" s="493"/>
-      <c r="P6" s="493"/>
-      <c r="Q6" s="493"/>
-      <c r="R6" s="494"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="495"/>
+      <c r="N6" s="496"/>
+      <c r="O6" s="496"/>
+      <c r="P6" s="496"/>
+      <c r="Q6" s="496"/>
+      <c r="R6" s="497"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
-      <c r="M7" s="492"/>
-      <c r="N7" s="493"/>
-      <c r="O7" s="493"/>
-      <c r="P7" s="493"/>
-      <c r="Q7" s="493"/>
-      <c r="R7" s="494"/>
+      <c r="L7" s="393"/>
+      <c r="M7" s="495"/>
+      <c r="N7" s="496"/>
+      <c r="O7" s="496"/>
+      <c r="P7" s="496"/>
+      <c r="Q7" s="496"/>
+      <c r="R7" s="497"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11563,12 +11563,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="440" t="s">
+      <c r="B21" s="419" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="441"/>
-      <c r="D21" s="441"/>
-      <c r="E21" s="442"/>
+      <c r="C21" s="420"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="421"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -11614,13 +11614,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -11633,6 +11626,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -11697,47 +11697,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="477">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="478"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
+      <c r="P2" s="498"/>
+      <c r="Q2" s="498"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11748,9 +11748,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11769,22 +11769,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11795,22 +11795,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11821,27 +11821,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12104,12 +12104,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="440" t="s">
+      <c r="B16" s="419" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="441"/>
-      <c r="D16" s="441"/>
-      <c r="E16" s="442"/>
+      <c r="C16" s="420"/>
+      <c r="D16" s="420"/>
+      <c r="E16" s="421"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -12155,15 +12155,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -12174,6 +12165,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -12241,47 +12241,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="467" t="s">
+      <c r="B2" s="468"/>
+      <c r="C2" s="469"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="473" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="483" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="474"/>
-      <c r="K2" s="477">
+      <c r="J2" s="484"/>
+      <c r="K2" s="487">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="478"/>
+      <c r="L2" s="488"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="496"/>
-      <c r="Q2" s="496"/>
+      <c r="P2" s="499"/>
+      <c r="Q2" s="499"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="461"/>
-      <c r="C3" s="462"/>
-      <c r="D3" s="463"/>
-      <c r="E3" s="470" t="s">
+      <c r="B3" s="471"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="480" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -12292,9 +12292,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="476"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12313,22 +12313,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="443" t="s">
+      <c r="B5" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="481"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="461"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -12339,22 +12339,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="443" t="s">
+      <c r="B6" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="481"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="461"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="482"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="484"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="427"/>
+      <c r="F6" s="427"/>
+      <c r="G6" s="427"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -12365,27 +12365,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="485"/>
-      <c r="D7" s="403">
+      <c r="C7" s="465"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="452"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="486" t="s">
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
+      <c r="I7" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="485"/>
-      <c r="K7" s="391">
+      <c r="J7" s="465"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -12771,17 +12771,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12789,6 +12778,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Бутылка 0,2 л.)/от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Бутылка 0,2 л.)/от 03.10.2019.xlsx
@@ -3021,6 +3021,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3062,12 +3068,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3083,6 +3083,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3092,11 +3098,77 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3148,76 +3220,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3241,75 +3310,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3336,6 +3336,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3344,9 +3347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5625,7 +5625,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5637,25 +5637,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="396" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
       <c r="G1" s="374" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="397" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="396"/>
-      <c r="E2" s="397"/>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="399"/>
       <c r="G2" s="373" t="s">
         <v>81</v>
       </c>
@@ -5666,45 +5666,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="401" t="s">
+      <c r="A5" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="402"/>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="403"/>
+      <c r="B5" s="404"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="405"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="394" t="s">
+      <c r="A7" s="396" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="398"/>
-      <c r="C7" s="398"/>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398"/>
+      <c r="B7" s="400"/>
+      <c r="C7" s="400"/>
+      <c r="D7" s="400"/>
+      <c r="E7" s="400"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="404"/>
-      <c r="B8" s="405"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="405"/>
-      <c r="E8" s="406"/>
+      <c r="A8" s="406"/>
+      <c r="B8" s="407"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="407"/>
+      <c r="E8" s="408"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="394" t="s">
+      <c r="A10" s="396" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="394"/>
+      <c r="B10" s="396"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>96</v>
@@ -5715,33 +5715,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="392"/>
-      <c r="B11" s="393"/>
+      <c r="A11" s="394"/>
+      <c r="B11" s="395"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="407" t="s">
+      <c r="F11" s="392" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="407"/>
-      <c r="H11" s="407"/>
-      <c r="I11" s="407"/>
-      <c r="J11" s="408" t="s">
+      <c r="G11" s="392"/>
+      <c r="H11" s="392"/>
+      <c r="I11" s="392"/>
+      <c r="J11" s="393" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="408"/>
+      <c r="K11" s="393"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="407" t="s">
+      <c r="F12" s="392" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="407"/>
-      <c r="H12" s="407"/>
-      <c r="I12" s="407"/>
-      <c r="J12" s="408" t="s">
+      <c r="G12" s="392"/>
+      <c r="H12" s="392"/>
+      <c r="I12" s="392"/>
+      <c r="J12" s="393" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="408"/>
+      <c r="K12" s="393"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="376" t="s">
@@ -5753,16 +5753,16 @@
       <c r="C13" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="407" t="s">
+      <c r="F13" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="407"/>
-      <c r="H13" s="407"/>
-      <c r="I13" s="407"/>
-      <c r="J13" s="408" t="s">
+      <c r="G13" s="392"/>
+      <c r="H13" s="392"/>
+      <c r="I13" s="392"/>
+      <c r="J13" s="393" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="408"/>
+      <c r="K13" s="393"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="378" t="s">
@@ -5920,12 +5920,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -5934,6 +5928,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5987,47 +5987,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="461"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="477"/>
+      <c r="K2" s="480">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="481"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="503"/>
-      <c r="Q2" s="503"/>
+      <c r="P2" s="500"/>
+      <c r="Q2" s="500"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6038,9 +6038,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6059,22 +6059,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6085,22 +6085,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6111,27 +6111,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6460,12 +6460,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="500" t="s">
+      <c r="B18" s="501" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
-      <c r="E18" s="502"/>
+      <c r="C18" s="502"/>
+      <c r="D18" s="502"/>
+      <c r="E18" s="503"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -6509,14 +6509,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -6528,6 +6520,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6613,24 +6613,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="461"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="477"/>
+      <c r="K2" s="480">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="481"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -6641,19 +6641,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -6664,9 +6664,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6685,22 +6685,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -6711,22 +6711,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -6737,27 +6737,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -7138,6 +7138,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7145,17 +7156,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7221,19 +7221,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="461"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
+      <c r="J2" s="477"/>
       <c r="K2" s="506">
         <f>Данные!B23</f>
         <v>20</v>
@@ -7249,17 +7249,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
       <c r="K3" s="508"/>
       <c r="L3" s="509"/>
       <c r="M3" s="274"/>
@@ -7272,9 +7272,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7293,22 +7293,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7319,22 +7319,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7345,27 +7345,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -7638,6 +7638,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -7654,8 +7656,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7684,7 +7684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7749,47 +7749,47 @@
       <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="415" t="s">
+      <c r="A11" s="417" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="415"/>
-      <c r="C11" s="415"/>
-      <c r="D11" s="415"/>
-      <c r="E11" s="415"/>
-      <c r="F11" s="415"/>
-      <c r="G11" s="415"/>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415"/>
-      <c r="J11" s="415"/>
+      <c r="B11" s="417"/>
+      <c r="C11" s="417"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="417"/>
+      <c r="F11" s="417"/>
+      <c r="G11" s="417"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="417"/>
+      <c r="J11" s="417"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="414" t="s">
+      <c r="A12" s="416" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="414"/>
-      <c r="C12" s="414"/>
-      <c r="D12" s="414"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="414"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="414"/>
-      <c r="J12" s="414"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="416"/>
+      <c r="F12" s="416"/>
+      <c r="G12" s="416"/>
+      <c r="H12" s="416"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="416"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="416" t="str">
+      <c r="A13" s="418" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="B13" s="415"/>
-      <c r="C13" s="415"/>
-      <c r="D13" s="415"/>
-      <c r="E13" s="415"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="415"/>
-      <c r="H13" s="415"/>
-      <c r="I13" s="415"/>
-      <c r="J13" s="415"/>
+      <c r="B13" s="417"/>
+      <c r="C13" s="417"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="417"/>
+      <c r="F13" s="417"/>
+      <c r="G13" s="417"/>
+      <c r="H13" s="417"/>
+      <c r="I13" s="417"/>
+      <c r="J13" s="417"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -7914,38 +7914,38 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="417" t="s">
+      <c r="A22" s="414" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="414" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417" t="s">
+      <c r="C22" s="414"/>
+      <c r="D22" s="414"/>
+      <c r="E22" s="414" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="417"/>
-      <c r="G22" s="418" t="s">
+      <c r="F22" s="414"/>
+      <c r="G22" s="415" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="417" t="s">
+      <c r="H22" s="414" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
+      <c r="I22" s="414"/>
+      <c r="J22" s="414"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="417"/>
-      <c r="B23" s="417"/>
-      <c r="C23" s="417"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="418"/>
-      <c r="H23" s="417"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
+      <c r="A23" s="414"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="414"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="414"/>
+      <c r="G23" s="415"/>
+      <c r="H23" s="414"/>
+      <c r="I23" s="414"/>
+      <c r="J23" s="414"/>
     </row>
     <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="386">
@@ -8346,28 +8346,12 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -8384,12 +8368,28 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8444,47 +8444,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="446" t="s">
+      <c r="B2" s="419"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="428" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="453" t="s">
+      <c r="F2" s="429"/>
+      <c r="G2" s="429"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="457">
+      <c r="J2" s="436"/>
+      <c r="K2" s="439">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="458"/>
+      <c r="L2" s="440"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="449"/>
+      <c r="P2" s="431"/>
+      <c r="Q2" s="431"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="440"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="450" t="s">
+      <c r="B3" s="422"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="432" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="460"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="438"/>
+      <c r="K3" s="441"/>
+      <c r="L3" s="442"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8495,9 +8495,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="445"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="427"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8516,22 +8516,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="423"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="447"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8542,22 +8542,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="426"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="450"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="448"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8568,27 +8568,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="430"/>
-      <c r="D7" s="404">
+      <c r="C7" s="454"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="429" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="392">
+      <c r="J7" s="457"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9014,7 +9014,7 @@
       <c r="R20" s="334"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="105" t="s">
         <v>41</v>
@@ -9047,7 +9047,7 @@
       <c r="R21" s="334"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="105" t="s">
         <v>42</v>
@@ -9082,12 +9082,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="434" t="s">
+      <c r="B23" s="458" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="435"/>
-      <c r="D23" s="435"/>
-      <c r="E23" s="436"/>
+      <c r="C23" s="459"/>
+      <c r="D23" s="459"/>
+      <c r="E23" s="460"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -9109,12 +9109,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="419" t="s">
+      <c r="B24" s="443" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="420"/>
-      <c r="D24" s="420"/>
-      <c r="E24" s="421"/>
+      <c r="C24" s="444"/>
+      <c r="D24" s="444"/>
+      <c r="E24" s="445"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -9158,12 +9158,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9178,6 +9172,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -9243,50 +9243,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="468">
+      <c r="B2" s="461">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="477"/>
+      <c r="K2" s="480">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="481"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="449"/>
+      <c r="P2" s="431"/>
+      <c r="Q2" s="431"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9297,9 +9297,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9318,22 +9318,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9344,22 +9344,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9370,27 +9370,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9587,13 +9587,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="434" t="s">
+      <c r="B14" s="458" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="435"/>
-      <c r="D14" s="435"/>
-      <c r="E14" s="435"/>
-      <c r="F14" s="467"/>
+      <c r="C14" s="459"/>
+      <c r="D14" s="459"/>
+      <c r="E14" s="459"/>
+      <c r="F14" s="490"/>
       <c r="G14" s="56" t="s">
         <v>79</v>
       </c>
@@ -9612,12 +9612,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="419" t="s">
+      <c r="B15" s="443" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="420"/>
-      <c r="D15" s="420"/>
-      <c r="E15" s="421"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="444"/>
+      <c r="E15" s="445"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -9668,12 +9668,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9688,6 +9682,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9761,47 +9761,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="446" t="s">
+      <c r="B2" s="419"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="428" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="453" t="s">
+      <c r="F2" s="429"/>
+      <c r="G2" s="429"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="457">
+      <c r="J2" s="436"/>
+      <c r="K2" s="439">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="458"/>
+      <c r="L2" s="440"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="449"/>
-      <c r="Q2" s="449"/>
+      <c r="P2" s="431"/>
+      <c r="Q2" s="431"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="440"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="450" t="s">
+      <c r="B3" s="422"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="432" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="460"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="438"/>
+      <c r="K3" s="441"/>
+      <c r="L3" s="442"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9812,9 +9812,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="445"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="427"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9833,22 +9833,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="423"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="447"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9859,22 +9859,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="426"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="450"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="448"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9885,27 +9885,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="430"/>
-      <c r="D7" s="404">
+      <c r="C7" s="454"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="429" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="392">
+      <c r="J7" s="457"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10388,6 +10388,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -10404,8 +10406,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10473,24 +10473,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="446" t="s">
+      <c r="B2" s="419"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="428" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="447"/>
-      <c r="G2" s="447"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="453" t="s">
+      <c r="F2" s="429"/>
+      <c r="G2" s="429"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="457">
+      <c r="J2" s="436"/>
+      <c r="K2" s="439">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="458"/>
+      <c r="L2" s="440"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -10501,19 +10501,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="440"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="450" t="s">
+      <c r="B3" s="422"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="460"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
+      <c r="H3" s="434"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="438"/>
+      <c r="K3" s="441"/>
+      <c r="L3" s="442"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10524,9 +10524,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="445"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="427"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10545,22 +10545,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="423"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="447"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10571,22 +10571,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="426"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="450"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="424"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="402"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="448"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10597,27 +10597,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="430"/>
-      <c r="D7" s="404">
+      <c r="C7" s="454"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="429" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="433"/>
-      <c r="K7" s="392">
+      <c r="J7" s="457"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10902,17 +10902,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -10920,6 +10909,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -10991,24 +10991,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="461"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="477"/>
+      <c r="K2" s="480">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="481"/>
       <c r="M2" s="492"/>
       <c r="N2" s="493"/>
       <c r="O2" s="493"/>
@@ -11019,19 +11019,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="495"/>
       <c r="N3" s="496"/>
       <c r="O3" s="496"/>
@@ -11042,9 +11042,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11063,22 +11063,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="495"/>
       <c r="N5" s="496"/>
       <c r="O5" s="496"/>
@@ -11089,22 +11089,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="495"/>
       <c r="N6" s="496"/>
       <c r="O6" s="496"/>
@@ -11115,27 +11115,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="495"/>
       <c r="N7" s="496"/>
       <c r="O7" s="496"/>
@@ -11563,12 +11563,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="419" t="s">
+      <c r="B21" s="443" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="420"/>
-      <c r="D21" s="420"/>
-      <c r="E21" s="421"/>
+      <c r="C21" s="444"/>
+      <c r="D21" s="444"/>
+      <c r="E21" s="445"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -11614,6 +11614,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -11626,13 +11633,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -11697,24 +11697,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="461"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="477"/>
+      <c r="K2" s="480">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="481"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -11725,19 +11725,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11748,9 +11748,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11769,22 +11769,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11795,22 +11795,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11821,27 +11821,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12104,12 +12104,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="419" t="s">
+      <c r="B16" s="443" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="420"/>
-      <c r="D16" s="420"/>
-      <c r="E16" s="421"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="444"/>
+      <c r="E16" s="445"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -12155,6 +12155,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -12165,15 +12174,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -12241,24 +12241,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="477" t="s">
+      <c r="B2" s="461"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="470" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="483" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="484"/>
-      <c r="K2" s="487">
+      <c r="J2" s="477"/>
+      <c r="K2" s="480">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="481"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -12269,19 +12269,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="480" t="s">
+      <c r="B3" s="464"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="473" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="490"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -12292,9 +12292,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="476"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="469"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12313,22 +12313,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="422" t="s">
+      <c r="B5" s="446" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="401" t="str">
+      <c r="C5" s="484"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="403"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="487"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -12339,22 +12339,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="422" t="s">
+      <c r="B6" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="461"/>
-      <c r="D6" s="395" t="str">
+      <c r="C6" s="484"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="403"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -12365,27 +12365,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="453" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="465"/>
-      <c r="D7" s="404">
+      <c r="C7" s="488"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
-      <c r="I7" s="466" t="s">
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="465"/>
-      <c r="K7" s="392">
+      <c r="J7" s="488"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="393"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -12771,6 +12771,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12778,17 +12789,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
